--- a/Testning/För Examensarbetar som placerar missljudet.xlsx
+++ b/Testning/För Examensarbetar som placerar missljudet.xlsx
@@ -677,7 +677,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -753,7 +753,7 @@
     <row r="4" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D4" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>0</v>
@@ -775,7 +775,7 @@
       <c r="C5" s="18"/>
       <c r="D5" s="2">
         <f t="shared" ref="D5:D18" ca="1" si="0">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>1</v>
@@ -792,7 +792,7 @@
     <row r="6" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>2</v>
@@ -809,7 +809,7 @@
     <row r="7" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>3</v>
@@ -833,7 +833,7 @@
     <row r="8" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>4</v>
@@ -862,7 +862,7 @@
     <row r="9" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
@@ -888,7 +888,7 @@
     <row r="10" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>6</v>
@@ -916,7 +916,7 @@
     <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
@@ -946,7 +946,7 @@
     <row r="12" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>9</v>
@@ -996,7 +996,7 @@
     <row r="14" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D14" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>17</v>
@@ -1028,7 +1028,7 @@
     <row r="15" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>18</v>
@@ -1094,7 +1094,7 @@
     <row r="18" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>21</v>
@@ -1190,7 +1190,7 @@
     <row r="25" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D25" s="2">
         <f t="shared" ref="D25:D39" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>0</v>
@@ -1224,7 +1224,7 @@
     <row r="27" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>2</v>
@@ -1258,7 +1258,7 @@
     <row r="29" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>4</v>
@@ -1292,7 +1292,7 @@
     <row r="31" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>6</v>
@@ -1309,7 +1309,7 @@
     <row r="32" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>7</v>
@@ -1326,7 +1326,7 @@
     <row r="33" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>9</v>
@@ -1343,7 +1343,7 @@
     <row r="34" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>8</v>
@@ -1360,7 +1360,7 @@
     <row r="35" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D35" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>17</v>
@@ -1377,7 +1377,7 @@
     <row r="36" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>18</v>
@@ -1428,7 +1428,7 @@
     <row r="39" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>21</v>
@@ -1529,7 +1529,7 @@
     <row r="48" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D48" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>0</v>
@@ -1546,7 +1546,7 @@
     <row r="49" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D49" s="2">
         <f t="shared" ref="D49:D62" ca="1" si="2">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>1</v>
@@ -1580,7 +1580,7 @@
     <row r="51" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D51" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>3</v>
@@ -1597,7 +1597,7 @@
     <row r="52" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D52" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>4</v>
@@ -1614,7 +1614,7 @@
     <row r="53" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D53" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>5</v>
@@ -1631,7 +1631,7 @@
     <row r="54" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D54" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>6</v>
@@ -1648,7 +1648,7 @@
     <row r="55" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D55" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>7</v>
@@ -1716,7 +1716,7 @@
     <row r="59" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D59" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>18</v>
@@ -1733,7 +1733,7 @@
     <row r="60" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D60" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>19</v>
@@ -1750,7 +1750,7 @@
     <row r="61" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D61" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>20</v>
@@ -1863,7 +1863,7 @@
     <row r="69" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D69" s="2">
         <f t="shared" ref="D69:D83" ca="1" si="3">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>0</v>
@@ -1880,7 +1880,7 @@
     <row r="70" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D70" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>1</v>
@@ -1897,7 +1897,7 @@
     <row r="71" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D71" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>2</v>
@@ -1931,7 +1931,7 @@
     <row r="73" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D73" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>4</v>
@@ -1948,7 +1948,7 @@
     <row r="74" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D74" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>5</v>
@@ -1965,7 +1965,7 @@
     <row r="75" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D75" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>6</v>
@@ -1982,7 +1982,7 @@
     <row r="76" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D76" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>7</v>
@@ -1999,7 +1999,7 @@
     <row r="77" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D77" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>9</v>
@@ -2016,7 +2016,7 @@
     <row r="78" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D78" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>8</v>
@@ -2050,7 +2050,7 @@
     <row r="80" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D80" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>18</v>
@@ -2084,7 +2084,7 @@
     <row r="82" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D82" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>20</v>
@@ -2101,7 +2101,7 @@
     <row r="83" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D83" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E83" s="11" t="s">
         <v>21</v>
@@ -2199,7 +2199,7 @@
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" ref="A5:A18" ca="1" si="0">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -2244,7 +2244,7 @@
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>2</v>
@@ -2296,7 +2296,7 @@
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -2321,7 +2321,7 @@
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
@@ -2345,7 +2345,7 @@
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>6</v>
@@ -2377,7 +2377,7 @@
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
@@ -2410,7 +2410,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
@@ -2491,7 +2491,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>18</v>
@@ -2508,7 +2508,7 @@
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>19</v>
@@ -2525,7 +2525,7 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>20</v>
@@ -2638,7 +2638,7 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" ref="A25:A39" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>0</v>
@@ -2672,7 +2672,7 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>2</v>
@@ -2689,7 +2689,7 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>3</v>
@@ -2706,7 +2706,7 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>4</v>
@@ -2740,7 +2740,7 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>6</v>
@@ -2774,7 +2774,7 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>9</v>
@@ -2791,7 +2791,7 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>8</v>
@@ -2808,7 +2808,7 @@
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>17</v>
@@ -2825,7 +2825,7 @@
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>18</v>
@@ -2842,7 +2842,7 @@
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>19</v>
@@ -2859,7 +2859,7 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>20</v>
@@ -2977,7 +2977,7 @@
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>0</v>
@@ -2994,7 +2994,7 @@
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <f t="shared" ref="A49:A62" ca="1" si="2">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>1</v>
@@ -3028,7 +3028,7 @@
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>3</v>
@@ -3045,7 +3045,7 @@
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>4</v>
@@ -3079,7 +3079,7 @@
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>6</v>
@@ -3113,7 +3113,7 @@
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>9</v>
@@ -3164,7 +3164,7 @@
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>18</v>
@@ -3181,7 +3181,7 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>19</v>
@@ -3198,7 +3198,7 @@
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>20</v>
@@ -3215,7 +3215,7 @@
     <row r="62" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B62" s="11" t="s">
         <v>21</v>
@@ -3311,7 +3311,7 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <f t="shared" ref="A69:A83" ca="1" si="3">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>0</v>
@@ -3328,7 +3328,7 @@
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>1</v>
@@ -3345,7 +3345,7 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>2</v>
@@ -3362,7 +3362,7 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>3</v>
@@ -3379,7 +3379,7 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>4</v>
@@ -3413,7 +3413,7 @@
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>6</v>
@@ -3447,7 +3447,7 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>9</v>
@@ -3464,7 +3464,7 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>8</v>
@@ -3481,7 +3481,7 @@
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>17</v>
@@ -3498,7 +3498,7 @@
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>18</v>
@@ -3515,7 +3515,7 @@
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>19</v>
@@ -3584,7 +3584,7 @@
   <dimension ref="B1:S85"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+      <selection activeCell="D15" sqref="D15:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3648,7 +3648,7 @@
     <row r="5" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>0</v>
@@ -3665,7 +3665,7 @@
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <f t="shared" ref="B6:B19" ca="1" si="0">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
@@ -3689,7 +3689,7 @@
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
@@ -3715,7 +3715,7 @@
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -3741,7 +3741,7 @@
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -3790,7 +3790,7 @@
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
@@ -3822,7 +3822,7 @@
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
@@ -3852,7 +3852,7 @@
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -3884,7 +3884,7 @@
     <row r="14" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
@@ -3916,7 +3916,7 @@
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>17</v>
@@ -3933,7 +3933,7 @@
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>18</v>
@@ -3950,7 +3950,7 @@
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>19</v>
@@ -3967,7 +3967,7 @@
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>20</v>
@@ -4080,7 +4080,7 @@
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <f t="shared" ref="B26:B40" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>0</v>
@@ -4097,7 +4097,7 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>1</v>
@@ -4114,7 +4114,7 @@
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>2</v>
@@ -4131,7 +4131,7 @@
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>3</v>
@@ -4165,7 +4165,7 @@
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>5</v>
@@ -4182,7 +4182,7 @@
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>6</v>
@@ -4199,7 +4199,7 @@
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>7</v>
@@ -4233,7 +4233,7 @@
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>8</v>
@@ -4250,7 +4250,7 @@
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>17</v>
@@ -4267,7 +4267,7 @@
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>18</v>
@@ -4284,7 +4284,7 @@
     <row r="38" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>19</v>
@@ -4301,7 +4301,7 @@
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>20</v>
@@ -4318,7 +4318,7 @@
     <row r="40" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>21</v>
@@ -4418,7 +4418,7 @@
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>0</v>
@@ -4435,7 +4435,7 @@
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
         <f t="shared" ref="B50:B63" ca="1" si="2">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>1</v>
@@ -4452,7 +4452,7 @@
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>2</v>
@@ -4486,7 +4486,7 @@
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>4</v>
@@ -4503,7 +4503,7 @@
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>5</v>
@@ -4520,7 +4520,7 @@
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>6</v>
@@ -4537,7 +4537,7 @@
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>7</v>
@@ -4554,7 +4554,7 @@
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
@@ -4571,7 +4571,7 @@
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>8</v>
@@ -4588,7 +4588,7 @@
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>17</v>
@@ -4605,7 +4605,7 @@
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>18</v>
@@ -4622,7 +4622,7 @@
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>19</v>
@@ -4639,7 +4639,7 @@
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>20</v>
@@ -4752,7 +4752,7 @@
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="2">
         <f t="shared" ref="B70:B84" ca="1" si="3">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>0</v>
@@ -4769,7 +4769,7 @@
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>1</v>
@@ -4786,7 +4786,7 @@
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>2</v>
@@ -4803,7 +4803,7 @@
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>3</v>
@@ -4820,7 +4820,7 @@
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>4</v>
@@ -4837,7 +4837,7 @@
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>5</v>
@@ -4871,7 +4871,7 @@
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>7</v>
@@ -4888,7 +4888,7 @@
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -4905,7 +4905,7 @@
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>8</v>
@@ -4922,7 +4922,7 @@
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>17</v>
@@ -4956,7 +4956,7 @@
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>19</v>
@@ -4990,7 +4990,7 @@
     <row r="84" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>21</v>
@@ -5097,7 +5097,7 @@
     <row r="7" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E7" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>0</v>
@@ -5127,7 +5127,7 @@
     <row r="8" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E8" s="2">
         <f t="shared" ref="E8:E21" ca="1" si="0">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>1</v>
@@ -5153,7 +5153,7 @@
     <row r="9" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>2</v>
@@ -5175,7 +5175,7 @@
     <row r="10" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>3</v>
@@ -5199,7 +5199,7 @@
     <row r="11" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>4</v>
@@ -5228,7 +5228,7 @@
     <row r="12" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>5</v>
@@ -5252,7 +5252,7 @@
     <row r="13" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>6</v>
@@ -5290,7 +5290,7 @@
     <row r="14" spans="5:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>7</v>
@@ -5328,7 +5328,7 @@
     <row r="15" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -5345,7 +5345,7 @@
     <row r="16" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>8</v>
@@ -5362,7 +5362,7 @@
     <row r="17" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>17</v>
@@ -5379,7 +5379,7 @@
     <row r="18" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>18</v>
@@ -5396,7 +5396,7 @@
     <row r="19" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>19</v>
@@ -5413,7 +5413,7 @@
     <row r="20" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>20</v>
@@ -5430,7 +5430,7 @@
     <row r="21" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>21</v>
@@ -5526,7 +5526,7 @@
     <row r="28" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E28" s="2">
         <f t="shared" ref="E28:E42" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>0</v>
@@ -5543,7 +5543,7 @@
     <row r="29" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>1</v>
@@ -5560,7 +5560,7 @@
     <row r="30" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>2</v>
@@ -5577,7 +5577,7 @@
     <row r="31" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>3</v>
@@ -5594,7 +5594,7 @@
     <row r="32" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>4</v>
@@ -5611,7 +5611,7 @@
     <row r="33" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>5</v>
@@ -5628,7 +5628,7 @@
     <row r="34" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>6</v>
@@ -5645,7 +5645,7 @@
     <row r="35" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>7</v>
@@ -5662,7 +5662,7 @@
     <row r="36" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -5696,7 +5696,7 @@
     <row r="38" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>17</v>
@@ -5713,7 +5713,7 @@
     <row r="39" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>18</v>
@@ -5747,7 +5747,7 @@
     <row r="41" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>20</v>
@@ -5764,7 +5764,7 @@
     <row r="42" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>21</v>
@@ -5865,7 +5865,7 @@
     <row r="51" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E51" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>0</v>
@@ -5882,7 +5882,7 @@
     <row r="52" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E52" s="2">
         <f t="shared" ref="E52:E65" ca="1" si="2">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>1</v>
@@ -5899,7 +5899,7 @@
     <row r="53" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E53" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>2</v>
@@ -5916,7 +5916,7 @@
     <row r="54" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E54" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>3</v>
@@ -5933,7 +5933,7 @@
     <row r="55" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E55" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>4</v>
@@ -5950,7 +5950,7 @@
     <row r="56" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E56" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>5</v>
@@ -5967,7 +5967,7 @@
     <row r="57" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E57" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>6</v>
@@ -6001,7 +6001,7 @@
     <row r="59" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E59" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -6018,7 +6018,7 @@
     <row r="60" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E60" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>8</v>
@@ -6035,7 +6035,7 @@
     <row r="61" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E61" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F61" s="12" t="s">
         <v>17</v>
@@ -6052,7 +6052,7 @@
     <row r="62" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E62" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>18</v>
@@ -6086,7 +6086,7 @@
     <row r="64" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E64" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>20</v>
@@ -6233,7 +6233,7 @@
     <row r="74" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E74" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>2</v>
@@ -6250,7 +6250,7 @@
     <row r="75" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E75" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>3</v>
@@ -6284,7 +6284,7 @@
     <row r="77" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E77" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>5</v>
@@ -6301,7 +6301,7 @@
     <row r="78" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E78" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>6</v>
@@ -6318,7 +6318,7 @@
     <row r="79" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E79" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>7</v>
@@ -6335,7 +6335,7 @@
     <row r="80" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E80" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -6352,7 +6352,7 @@
     <row r="81" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E81" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>8</v>
@@ -6369,7 +6369,7 @@
     <row r="82" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E82" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F82" s="12" t="s">
         <v>17</v>
@@ -6386,7 +6386,7 @@
     <row r="83" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E83" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>18</v>
@@ -6420,7 +6420,7 @@
     <row r="85" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E85" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>20</v>
@@ -6437,7 +6437,7 @@
     <row r="86" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E86" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F86" s="11" t="s">
         <v>21</v>
@@ -6548,7 +6548,7 @@
     <row r="9" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F9" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>0</v>
@@ -6574,7 +6574,7 @@
     <row r="10" spans="6:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F10" s="2">
         <f t="shared" ref="F10:F23" ca="1" si="0">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>1</v>
@@ -6600,7 +6600,7 @@
     <row r="11" spans="6:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>2</v>
@@ -6622,7 +6622,7 @@
     <row r="12" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>3</v>
@@ -6646,7 +6646,7 @@
     <row r="13" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>4</v>
@@ -6675,7 +6675,7 @@
     <row r="14" spans="6:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>5</v>
@@ -6699,7 +6699,7 @@
     <row r="15" spans="6:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>6</v>
@@ -6737,7 +6737,7 @@
     <row r="16" spans="6:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>7</v>
@@ -6775,7 +6775,7 @@
     <row r="17" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>9</v>
@@ -6792,7 +6792,7 @@
     <row r="18" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>8</v>
@@ -6809,7 +6809,7 @@
     <row r="19" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>17</v>
@@ -6826,7 +6826,7 @@
     <row r="20" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>18</v>
@@ -6843,7 +6843,7 @@
     <row r="21" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>19</v>
@@ -6877,7 +6877,7 @@
     <row r="23" spans="6:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>21</v>
@@ -6973,7 +6973,7 @@
     <row r="30" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F30" s="2">
         <f t="shared" ref="F30:F44" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>0</v>
@@ -6990,7 +6990,7 @@
     <row r="31" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>1</v>
@@ -7007,7 +7007,7 @@
     <row r="32" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>2</v>
@@ -7024,7 +7024,7 @@
     <row r="33" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>3</v>
@@ -7041,7 +7041,7 @@
     <row r="34" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>4</v>
@@ -7075,7 +7075,7 @@
     <row r="36" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>6</v>
@@ -7092,7 +7092,7 @@
     <row r="37" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>7</v>
@@ -7126,7 +7126,7 @@
     <row r="39" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>8</v>
@@ -7143,7 +7143,7 @@
     <row r="40" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>17</v>
@@ -7160,7 +7160,7 @@
     <row r="41" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>18</v>
@@ -7177,7 +7177,7 @@
     <row r="42" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>19</v>
@@ -7194,7 +7194,7 @@
     <row r="43" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>20</v>
@@ -7211,7 +7211,7 @@
     <row r="44" spans="6:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>21</v>
@@ -7311,7 +7311,7 @@
     <row r="53" spans="6:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F53" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>0</v>
@@ -7328,7 +7328,7 @@
     <row r="54" spans="6:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F54" s="2">
         <f t="shared" ref="F54:F67" ca="1" si="2">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>1</v>
@@ -7345,7 +7345,7 @@
     <row r="55" spans="6:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F55" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>2</v>
@@ -7379,7 +7379,7 @@
     <row r="57" spans="6:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F57" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>4</v>
@@ -7396,7 +7396,7 @@
     <row r="58" spans="6:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F58" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>5</v>
@@ -7413,7 +7413,7 @@
     <row r="59" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F59" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G59" s="2" t="s">
         <v>6</v>
@@ -7430,7 +7430,7 @@
     <row r="60" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F60" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>7</v>
@@ -7464,7 +7464,7 @@
     <row r="62" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F62" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>8</v>
@@ -7498,7 +7498,7 @@
     <row r="64" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F64" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G64" s="10" t="s">
         <v>18</v>
@@ -7515,7 +7515,7 @@
     <row r="65" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F65" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G65" s="10" t="s">
         <v>19</v>
@@ -7532,7 +7532,7 @@
     <row r="66" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F66" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G66" s="10" t="s">
         <v>20</v>
@@ -7549,7 +7549,7 @@
     <row r="67" spans="6:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F67" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G67" s="11" t="s">
         <v>21</v>
@@ -7679,7 +7679,7 @@
     <row r="76" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F76" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>2</v>
@@ -7713,7 +7713,7 @@
     <row r="78" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F78" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>4</v>
@@ -7730,7 +7730,7 @@
     <row r="79" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F79" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>5</v>
@@ -7747,7 +7747,7 @@
     <row r="80" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F80" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>6</v>
@@ -7764,7 +7764,7 @@
     <row r="81" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F81" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>7</v>
@@ -7781,7 +7781,7 @@
     <row r="82" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F82" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>9</v>
@@ -7798,7 +7798,7 @@
     <row r="83" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F83" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>8</v>
@@ -7815,7 +7815,7 @@
     <row r="84" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F84" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G84" s="12" t="s">
         <v>17</v>
@@ -7849,7 +7849,7 @@
     <row r="86" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F86" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G86" s="10" t="s">
         <v>19</v>
@@ -7866,7 +7866,7 @@
     <row r="87" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F87" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G87" s="10" t="s">
         <v>20</v>
@@ -7883,7 +7883,7 @@
     <row r="88" spans="6:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F88" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G88" s="11" t="s">
         <v>21</v>
@@ -8041,7 +8041,7 @@
     <row r="11" spans="2:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
@@ -8067,7 +8067,7 @@
     <row r="12" spans="2:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
@@ -8210,7 +8210,7 @@
     <row r="17" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
@@ -8259,7 +8259,7 @@
     <row r="19" spans="2:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C19" s="12" t="s">
         <v>17</v>
@@ -8276,7 +8276,7 @@
     <row r="20" spans="2:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>18</v>
@@ -8293,7 +8293,7 @@
     <row r="21" spans="2:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>19</v>
@@ -8310,7 +8310,7 @@
     <row r="22" spans="2:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>20</v>
@@ -8327,7 +8327,7 @@
     <row r="23" spans="2:19" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>21</v>
@@ -8423,7 +8423,7 @@
     <row r="30" spans="2:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <f t="shared" ref="B30:B44" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>0</v>
@@ -8440,7 +8440,7 @@
     <row r="31" spans="2:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>1</v>
@@ -8457,7 +8457,7 @@
     <row r="32" spans="2:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>2</v>
@@ -8474,7 +8474,7 @@
     <row r="33" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>3</v>
@@ -8491,7 +8491,7 @@
     <row r="34" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>4</v>
@@ -8508,7 +8508,7 @@
     <row r="35" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>5</v>
@@ -8525,7 +8525,7 @@
     <row r="36" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>6</v>
@@ -8559,7 +8559,7 @@
     <row r="38" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -8576,7 +8576,7 @@
     <row r="39" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>8</v>
@@ -8593,7 +8593,7 @@
     <row r="40" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>17</v>
@@ -8627,7 +8627,7 @@
     <row r="42" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>19</v>
@@ -8661,7 +8661,7 @@
     <row r="44" spans="2:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>21</v>
@@ -8761,7 +8761,7 @@
     <row r="53" spans="2:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B53" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>0</v>
@@ -8778,7 +8778,7 @@
     <row r="54" spans="2:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B54" s="2">
         <f t="shared" ref="B54:B67" ca="1" si="2">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>1</v>
@@ -8795,7 +8795,7 @@
     <row r="55" spans="2:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B55" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>2</v>
@@ -8812,7 +8812,7 @@
     <row r="56" spans="2:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B56" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>3</v>
@@ -8829,7 +8829,7 @@
     <row r="57" spans="2:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B57" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>4</v>
@@ -8846,7 +8846,7 @@
     <row r="58" spans="2:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B58" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>5</v>
@@ -8863,7 +8863,7 @@
     <row r="59" spans="2:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B59" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>6</v>
@@ -8914,7 +8914,7 @@
     <row r="62" spans="2:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B62" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>8</v>
@@ -8948,7 +8948,7 @@
     <row r="64" spans="2:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B64" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>18</v>
@@ -8965,7 +8965,7 @@
     <row r="65" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B65" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>19</v>
@@ -8982,7 +8982,7 @@
     <row r="66" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B66" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>20</v>
@@ -8999,7 +8999,7 @@
     <row r="67" spans="2:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B67" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>21</v>
@@ -9013,7 +9013,7 @@
       <c r="H67" s="5"/>
       <c r="I67" s="3"/>
     </row>
-    <row r="68" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -9023,7 +9023,7 @@
       <c r="H68" s="1"/>
       <c r="I68" s="3"/>
     </row>
-    <row r="69" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -9033,7 +9033,7 @@
       <c r="H69" s="1"/>
       <c r="I69" s="3"/>
     </row>
-    <row r="70" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -9046,7 +9046,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="71" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" s="2"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -9056,7 +9056,7 @@
       <c r="H71" s="1"/>
       <c r="I71" s="3"/>
     </row>
-    <row r="72" spans="2:11" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B72" s="2"/>
       <c r="C72" s="1" t="s">
         <v>23</v>
@@ -9068,7 +9068,7 @@
       <c r="H72" s="1"/>
       <c r="I72" s="3"/>
     </row>
-    <row r="73" spans="2:11" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B73" s="2" t="s">
         <v>22</v>
       </c>
@@ -9095,7 +9095,7 @@
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" s="2">
         <f t="shared" ref="B74:B88" ca="1" si="3">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>0</v>
@@ -9112,7 +9112,7 @@
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>1</v>
@@ -9129,7 +9129,7 @@
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>2</v>
@@ -9146,7 +9146,7 @@
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>3</v>
@@ -9163,7 +9163,7 @@
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>4</v>
@@ -9180,7 +9180,7 @@
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>5</v>
@@ -9197,7 +9197,7 @@
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>6</v>
@@ -9214,7 +9214,7 @@
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>7</v>
@@ -9248,7 +9248,7 @@
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>8</v>
@@ -9265,7 +9265,7 @@
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C84" s="12" t="s">
         <v>17</v>
@@ -9282,7 +9282,7 @@
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>18</v>
@@ -9299,7 +9299,7 @@
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B86" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C86" s="10" t="s">
         <v>19</v>
@@ -9333,7 +9333,7 @@
     <row r="88" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B88" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C88" s="11" t="s">
         <v>21</v>
@@ -9437,7 +9437,7 @@
     <row r="7" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>0</v>
@@ -9461,7 +9461,7 @@
     <row r="8" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <f t="shared" ref="C8:C21" ca="1" si="0">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>1</v>
@@ -9513,7 +9513,7 @@
     <row r="10" spans="3:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
@@ -9535,7 +9535,7 @@
     <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>4</v>
@@ -9562,7 +9562,7 @@
     <row r="12" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>5</v>
@@ -9588,7 +9588,7 @@
     <row r="13" spans="3:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -9618,7 +9618,7 @@
     <row r="14" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>7</v>
@@ -9656,7 +9656,7 @@
     <row r="15" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
@@ -9688,7 +9688,7 @@
     <row r="16" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>8</v>
@@ -9705,7 +9705,7 @@
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>17</v>
@@ -9722,7 +9722,7 @@
     <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>18</v>
@@ -9773,7 +9773,7 @@
     <row r="21" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>21</v>
@@ -9903,7 +9903,7 @@
     <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>2</v>
@@ -9937,7 +9937,7 @@
     <row r="32" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>4</v>
@@ -9954,7 +9954,7 @@
     <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>5</v>
@@ -9971,7 +9971,7 @@
     <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
@@ -9988,7 +9988,7 @@
     <row r="35" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>7</v>
@@ -10005,7 +10005,7 @@
     <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>9</v>
@@ -10022,7 +10022,7 @@
     <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>8</v>
@@ -10039,7 +10039,7 @@
     <row r="38" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>17</v>
@@ -10056,7 +10056,7 @@
     <row r="39" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>18</v>
@@ -10073,7 +10073,7 @@
     <row r="40" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>19</v>
@@ -10090,7 +10090,7 @@
     <row r="41" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>20</v>
@@ -10207,7 +10207,7 @@
     <row r="51" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>0</v>
@@ -10224,7 +10224,7 @@
     <row r="52" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
         <f t="shared" ref="C52:C65" ca="1" si="2">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>1</v>
@@ -10241,7 +10241,7 @@
     <row r="53" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>2</v>
@@ -10258,7 +10258,7 @@
     <row r="54" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>3</v>
@@ -10309,7 +10309,7 @@
     <row r="57" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C57" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>6</v>
@@ -10343,7 +10343,7 @@
     <row r="59" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C59" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>9</v>
@@ -10360,7 +10360,7 @@
     <row r="60" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C60" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>8</v>
@@ -10377,7 +10377,7 @@
     <row r="61" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C61" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>17</v>
@@ -10411,7 +10411,7 @@
     <row r="63" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C63" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>19</v>
@@ -10445,7 +10445,7 @@
     <row r="65" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C65" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>21</v>
@@ -10541,7 +10541,7 @@
     <row r="72" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C72" s="2">
         <f t="shared" ref="C72:C86" ca="1" si="3">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>0</v>
@@ -10558,7 +10558,7 @@
     <row r="73" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C73" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>1</v>
@@ -10575,7 +10575,7 @@
     <row r="74" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C74" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>2</v>
@@ -10592,7 +10592,7 @@
     <row r="75" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C75" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>3</v>
@@ -10609,7 +10609,7 @@
     <row r="76" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C76" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>4</v>
@@ -10626,7 +10626,7 @@
     <row r="77" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C77" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>5</v>
@@ -10643,7 +10643,7 @@
     <row r="78" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C78" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>6</v>
@@ -10660,7 +10660,7 @@
     <row r="79" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C79" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>7</v>
@@ -10677,7 +10677,7 @@
     <row r="80" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C80" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>9</v>
@@ -10694,7 +10694,7 @@
     <row r="81" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C81" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>8</v>
@@ -10711,7 +10711,7 @@
     <row r="82" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C82" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>17</v>
@@ -10728,7 +10728,7 @@
     <row r="83" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C83" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>18</v>
@@ -10745,7 +10745,7 @@
     <row r="84" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C84" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>19</v>
@@ -10762,7 +10762,7 @@
     <row r="85" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C85" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>20</v>
@@ -10921,7 +10921,7 @@
     <row r="9" spans="5:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E9" s="2">
         <f t="shared" ref="E9:E22" ca="1" si="0">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>1</v>
@@ -10947,7 +10947,7 @@
     <row r="10" spans="5:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>2</v>
@@ -10969,7 +10969,7 @@
     <row r="11" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>3</v>
@@ -11022,7 +11022,7 @@
     <row r="13" spans="5:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>5</v>
@@ -11084,7 +11084,7 @@
     <row r="15" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>7</v>
@@ -11139,7 +11139,7 @@
     <row r="17" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>8</v>
@@ -11173,7 +11173,7 @@
     <row r="19" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>18</v>
@@ -11190,7 +11190,7 @@
     <row r="20" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>19</v>
@@ -11207,7 +11207,7 @@
     <row r="21" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>20</v>
@@ -11224,7 +11224,7 @@
     <row r="22" spans="5:14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>21</v>
@@ -11320,7 +11320,7 @@
     <row r="29" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E29" s="2">
         <f t="shared" ref="E29:E43" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>0</v>
@@ -11337,7 +11337,7 @@
     <row r="30" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>1</v>
@@ -11371,7 +11371,7 @@
     <row r="32" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>3</v>
@@ -11405,7 +11405,7 @@
     <row r="34" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>5</v>
@@ -11422,7 +11422,7 @@
     <row r="35" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>6</v>
@@ -11439,7 +11439,7 @@
     <row r="36" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>7</v>
@@ -11456,7 +11456,7 @@
     <row r="37" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -11473,7 +11473,7 @@
     <row r="38" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>8</v>
@@ -11490,7 +11490,7 @@
     <row r="39" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>17</v>
@@ -11507,7 +11507,7 @@
     <row r="40" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>18</v>
@@ -11524,7 +11524,7 @@
     <row r="41" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>19</v>
@@ -11558,7 +11558,7 @@
     <row r="43" spans="5:14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F43" s="11" t="s">
         <v>21</v>
@@ -11676,7 +11676,7 @@
     <row r="53" spans="5:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E53" s="2">
         <f t="shared" ref="E53:E66" ca="1" si="2">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>1</v>
@@ -11693,7 +11693,7 @@
     <row r="54" spans="5:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E54" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>2</v>
@@ -11727,7 +11727,7 @@
     <row r="56" spans="5:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E56" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>4</v>
@@ -11744,7 +11744,7 @@
     <row r="57" spans="5:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E57" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>5</v>
@@ -11761,7 +11761,7 @@
     <row r="58" spans="5:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E58" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>6</v>
@@ -11795,7 +11795,7 @@
     <row r="60" spans="5:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E60" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -11812,7 +11812,7 @@
     <row r="61" spans="5:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E61" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>8</v>
@@ -11829,7 +11829,7 @@
     <row r="62" spans="5:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E62" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F62" s="12" t="s">
         <v>17</v>
@@ -11846,7 +11846,7 @@
     <row r="63" spans="5:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E63" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>18</v>
@@ -11880,7 +11880,7 @@
     <row r="65" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E65" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>20</v>
@@ -11897,7 +11897,7 @@
     <row r="66" spans="5:14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E66" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F66" s="11" t="s">
         <v>21</v>
@@ -11993,7 +11993,7 @@
     <row r="73" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E73" s="2">
         <f t="shared" ref="E73:E87" ca="1" si="3">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>0</v>
@@ -12027,7 +12027,7 @@
     <row r="75" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E75" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>2</v>
@@ -12044,7 +12044,7 @@
     <row r="76" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E76" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>3</v>
@@ -12078,7 +12078,7 @@
     <row r="78" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E78" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>5</v>
@@ -12095,7 +12095,7 @@
     <row r="79" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E79" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>6</v>
@@ -12112,7 +12112,7 @@
     <row r="80" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E80" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>7</v>
@@ -12129,7 +12129,7 @@
     <row r="81" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E81" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -12163,7 +12163,7 @@
     <row r="83" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E83" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F83" s="12" t="s">
         <v>17</v>
@@ -12180,7 +12180,7 @@
     <row r="84" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E84" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>18</v>
@@ -12197,7 +12197,7 @@
     <row r="85" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E85" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>19</v>
@@ -12214,7 +12214,7 @@
     <row r="86" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E86" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>20</v>
@@ -12231,7 +12231,7 @@
     <row r="87" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E87" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F87" s="11" t="s">
         <v>21</v>
@@ -12345,7 +12345,7 @@
     <row r="7" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D7" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>0</v>
@@ -12371,7 +12371,7 @@
     <row r="8" spans="4:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D8" s="2">
         <f t="shared" ref="D8:D21" ca="1" si="0">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>1</v>
@@ -12397,7 +12397,7 @@
     <row r="9" spans="4:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>2</v>
@@ -12443,7 +12443,7 @@
     <row r="11" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>4</v>
@@ -12472,7 +12472,7 @@
     <row r="12" spans="4:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>5</v>
@@ -12496,7 +12496,7 @@
     <row r="13" spans="4:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>6</v>
@@ -12572,7 +12572,7 @@
     <row r="15" spans="4:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>9</v>
@@ -12589,7 +12589,7 @@
     <row r="16" spans="4:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>8</v>
@@ -12623,7 +12623,7 @@
     <row r="18" spans="4:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>18</v>
@@ -12640,7 +12640,7 @@
     <row r="19" spans="4:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>19</v>
@@ -12770,7 +12770,7 @@
     <row r="28" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D28" s="2">
         <f t="shared" ref="D28:D42" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>0</v>
@@ -12804,7 +12804,7 @@
     <row r="30" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>2</v>
@@ -12821,7 +12821,7 @@
     <row r="31" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>3</v>
@@ -12838,7 +12838,7 @@
     <row r="32" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>4</v>
@@ -12855,7 +12855,7 @@
     <row r="33" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>5</v>
@@ -12872,7 +12872,7 @@
     <row r="34" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>6</v>
@@ -12889,7 +12889,7 @@
     <row r="35" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>7</v>
@@ -12906,7 +12906,7 @@
     <row r="36" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>9</v>
@@ -12923,7 +12923,7 @@
     <row r="37" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>8</v>
@@ -12957,7 +12957,7 @@
     <row r="39" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>18</v>
@@ -12974,7 +12974,7 @@
     <row r="40" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>19</v>
@@ -13008,7 +13008,7 @@
     <row r="42" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>21</v>
@@ -13108,7 +13108,7 @@
     <row r="51" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D51" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>0</v>
@@ -13125,7 +13125,7 @@
     <row r="52" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D52" s="2">
         <f t="shared" ref="D52:D65" ca="1" si="2">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>1</v>
@@ -13142,7 +13142,7 @@
     <row r="53" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D53" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>2</v>
@@ -13176,7 +13176,7 @@
     <row r="55" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D55" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>4</v>
@@ -13193,7 +13193,7 @@
     <row r="56" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D56" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>5</v>
@@ -13210,7 +13210,7 @@
     <row r="57" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D57" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>6</v>
@@ -13227,7 +13227,7 @@
     <row r="58" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D58" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>7</v>
@@ -13244,7 +13244,7 @@
     <row r="59" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D59" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>9</v>
@@ -13261,7 +13261,7 @@
     <row r="60" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D60" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>8</v>
@@ -13278,7 +13278,7 @@
     <row r="61" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D61" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>17</v>
@@ -13295,7 +13295,7 @@
     <row r="62" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D62" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>18</v>
@@ -13312,7 +13312,7 @@
     <row r="63" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D63" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>19</v>
@@ -13329,7 +13329,7 @@
     <row r="64" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D64" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>20</v>
@@ -13346,7 +13346,7 @@
     <row r="65" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D65" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>21</v>
@@ -13442,7 +13442,7 @@
     <row r="72" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D72" s="2">
         <f t="shared" ref="D72:D86" ca="1" si="3">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>0</v>
@@ -13459,7 +13459,7 @@
     <row r="73" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D73" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>1</v>
@@ -13476,7 +13476,7 @@
     <row r="74" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D74" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>2</v>
@@ -13493,7 +13493,7 @@
     <row r="75" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D75" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>3</v>
@@ -13527,7 +13527,7 @@
     <row r="77" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D77" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>5</v>
@@ -13544,7 +13544,7 @@
     <row r="78" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D78" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>6</v>
@@ -13561,7 +13561,7 @@
     <row r="79" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D79" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>7</v>
@@ -13578,7 +13578,7 @@
     <row r="80" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D80" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>9</v>
@@ -13595,7 +13595,7 @@
     <row r="81" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D81" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>8</v>
@@ -13612,7 +13612,7 @@
     <row r="82" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D82" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E82" s="12" t="s">
         <v>17</v>
@@ -13629,7 +13629,7 @@
     <row r="83" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D83" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>18</v>
@@ -13646,7 +13646,7 @@
     <row r="84" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D84" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>19</v>
@@ -13680,7 +13680,7 @@
     <row r="86" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D86" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E86" s="11" t="s">
         <v>21</v>

--- a/Testning/För Examensarbetar som placerar missljudet.xlsx
+++ b/Testning/För Examensarbetar som placerar missljudet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="6405" activeTab="2"/>
+    <workbookView xWindow="-15" yWindow="-15" windowWidth="28830" windowHeight="6405" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Michael Nilsson" sheetId="1" r:id="rId1"/>
@@ -677,7 +677,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -753,7 +753,7 @@
     <row r="4" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D4" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>0</v>
@@ -792,7 +792,7 @@
     <row r="6" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>2</v>
@@ -809,7 +809,7 @@
     <row r="7" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>3</v>
@@ -833,7 +833,7 @@
     <row r="8" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>4</v>
@@ -862,7 +862,7 @@
     <row r="9" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
@@ -888,7 +888,7 @@
     <row r="10" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>6</v>
@@ -916,7 +916,7 @@
     <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
@@ -972,7 +972,7 @@
     <row r="13" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>8</v>
@@ -996,7 +996,7 @@
     <row r="14" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D14" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>17</v>
@@ -1028,7 +1028,7 @@
     <row r="15" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>18</v>
@@ -1077,7 +1077,7 @@
     <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>20</v>
@@ -1094,7 +1094,7 @@
     <row r="18" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>21</v>
@@ -1190,7 +1190,7 @@
     <row r="25" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D25" s="2">
         <f t="shared" ref="D25:D39" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>0</v>
@@ -1207,7 +1207,7 @@
     <row r="26" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>1</v>
@@ -1224,7 +1224,7 @@
     <row r="27" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>2</v>
@@ -1241,7 +1241,7 @@
     <row r="28" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>3</v>
@@ -1258,7 +1258,7 @@
     <row r="29" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>4</v>
@@ -1309,7 +1309,7 @@
     <row r="32" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>7</v>
@@ -1326,7 +1326,7 @@
     <row r="33" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>9</v>
@@ -1360,7 +1360,7 @@
     <row r="35" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D35" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E35" s="12" t="s">
         <v>17</v>
@@ -1377,7 +1377,7 @@
     <row r="36" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>18</v>
@@ -1394,7 +1394,7 @@
     <row r="37" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>19</v>
@@ -1428,7 +1428,7 @@
     <row r="39" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>21</v>
@@ -1529,7 +1529,7 @@
     <row r="48" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D48" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>0</v>
@@ -1546,7 +1546,7 @@
     <row r="49" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D49" s="2">
         <f t="shared" ref="D49:D62" ca="1" si="2">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>1</v>
@@ -1580,7 +1580,7 @@
     <row r="51" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D51" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>3</v>
@@ -1597,7 +1597,7 @@
     <row r="52" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D52" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>4</v>
@@ -1614,7 +1614,7 @@
     <row r="53" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D53" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>5</v>
@@ -1631,7 +1631,7 @@
     <row r="54" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D54" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>6</v>
@@ -1648,7 +1648,7 @@
     <row r="55" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D55" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>7</v>
@@ -1665,7 +1665,7 @@
     <row r="56" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D56" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>9</v>
@@ -1682,7 +1682,7 @@
     <row r="57" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D57" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>8</v>
@@ -1699,7 +1699,7 @@
     <row r="58" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D58" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>17</v>
@@ -1716,7 +1716,7 @@
     <row r="59" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D59" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>18</v>
@@ -1733,7 +1733,7 @@
     <row r="60" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D60" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>19</v>
@@ -1750,7 +1750,7 @@
     <row r="61" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D61" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>20</v>
@@ -1863,7 +1863,7 @@
     <row r="69" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D69" s="2">
         <f t="shared" ref="D69:D83" ca="1" si="3">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>0</v>
@@ -1880,7 +1880,7 @@
     <row r="70" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D70" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>1</v>
@@ -1897,7 +1897,7 @@
     <row r="71" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D71" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>2</v>
@@ -1914,7 +1914,7 @@
     <row r="72" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D72" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>3</v>
@@ -1931,7 +1931,7 @@
     <row r="73" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D73" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>4</v>
@@ -1948,7 +1948,7 @@
     <row r="74" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D74" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>5</v>
@@ -1965,7 +1965,7 @@
     <row r="75" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D75" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>6</v>
@@ -1982,7 +1982,7 @@
     <row r="76" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D76" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>7</v>
@@ -1999,7 +1999,7 @@
     <row r="77" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D77" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>9</v>
@@ -2016,7 +2016,7 @@
     <row r="78" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D78" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>8</v>
@@ -2033,7 +2033,7 @@
     <row r="79" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D79" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E79" s="12" t="s">
         <v>17</v>
@@ -2067,7 +2067,7 @@
     <row r="81" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D81" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>19</v>
@@ -2084,7 +2084,7 @@
     <row r="82" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D82" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>20</v>
@@ -2199,7 +2199,7 @@
     <row r="4" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -2220,7 +2220,7 @@
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" ref="A5:A18" ca="1" si="0">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -2244,7 +2244,7 @@
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>2</v>
@@ -2270,7 +2270,7 @@
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
@@ -2296,7 +2296,7 @@
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -2321,7 +2321,7 @@
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
@@ -2345,7 +2345,7 @@
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>6</v>
@@ -2377,7 +2377,7 @@
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
@@ -2410,7 +2410,7 @@
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>9</v>
@@ -2442,7 +2442,7 @@
     <row r="13" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>8</v>
@@ -2474,7 +2474,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>17</v>
@@ -2491,7 +2491,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>18</v>
@@ -2508,7 +2508,7 @@
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>19</v>
@@ -2525,7 +2525,7 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>20</v>
@@ -2542,7 +2542,7 @@
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B18" s="11" t="s">
         <v>21</v>
@@ -2638,7 +2638,7 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" ref="A25:A39" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>0</v>
@@ -2655,7 +2655,7 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>1</v>
@@ -2706,7 +2706,7 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>4</v>
@@ -2740,7 +2740,7 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>6</v>
@@ -2757,7 +2757,7 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
@@ -2791,7 +2791,7 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>8</v>
@@ -2808,7 +2808,7 @@
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>17</v>
@@ -2825,7 +2825,7 @@
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>18</v>
@@ -2842,7 +2842,7 @@
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>19</v>
@@ -2859,7 +2859,7 @@
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>20</v>
@@ -2876,7 +2876,7 @@
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B39" s="11" t="s">
         <v>21</v>
@@ -2977,7 +2977,7 @@
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>0</v>
@@ -2994,7 +2994,7 @@
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <f t="shared" ref="A49:A62" ca="1" si="2">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>1</v>
@@ -3011,7 +3011,7 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>2</v>
@@ -3028,7 +3028,7 @@
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>3</v>
@@ -3045,7 +3045,7 @@
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>4</v>
@@ -3062,7 +3062,7 @@
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>5</v>
@@ -3079,7 +3079,7 @@
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>6</v>
@@ -3096,7 +3096,7 @@
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>7</v>
@@ -3113,7 +3113,7 @@
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>9</v>
@@ -3130,7 +3130,7 @@
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>8</v>
@@ -3147,7 +3147,7 @@
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>17</v>
@@ -3164,7 +3164,7 @@
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>18</v>
@@ -3181,7 +3181,7 @@
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B60" s="10" t="s">
         <v>19</v>
@@ -3345,7 +3345,7 @@
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>2</v>
@@ -3362,7 +3362,7 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>3</v>
@@ -3379,7 +3379,7 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>4</v>
@@ -3396,7 +3396,7 @@
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>5</v>
@@ -3413,7 +3413,7 @@
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>6</v>
@@ -3430,7 +3430,7 @@
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>7</v>
@@ -3447,7 +3447,7 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>9</v>
@@ -3481,7 +3481,7 @@
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>17</v>
@@ -3515,7 +3515,7 @@
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>19</v>
@@ -3549,7 +3549,7 @@
     <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B83" s="11" t="s">
         <v>21</v>
@@ -3583,7 +3583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:S85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D15" sqref="D15:G15"/>
     </sheetView>
   </sheetViews>
@@ -3648,7 +3648,7 @@
     <row r="5" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>0</v>
@@ -3665,7 +3665,7 @@
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <f t="shared" ref="B6:B19" ca="1" si="0">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
@@ -3689,7 +3689,7 @@
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
@@ -3715,7 +3715,7 @@
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -3741,7 +3741,7 @@
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -3790,7 +3790,7 @@
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
@@ -3884,7 +3884,7 @@
     <row r="14" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>8</v>
@@ -3916,7 +3916,7 @@
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>17</v>
@@ -3933,7 +3933,7 @@
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>18</v>
@@ -3967,7 +3967,7 @@
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>20</v>
@@ -4080,7 +4080,7 @@
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <f t="shared" ref="B26:B40" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>0</v>
@@ -4097,7 +4097,7 @@
     <row r="27" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>1</v>
@@ -4114,7 +4114,7 @@
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>2</v>
@@ -4131,7 +4131,7 @@
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>3</v>
@@ -4148,7 +4148,7 @@
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>4</v>
@@ -4165,7 +4165,7 @@
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>5</v>
@@ -4182,7 +4182,7 @@
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>6</v>
@@ -4199,7 +4199,7 @@
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>7</v>
@@ -4250,7 +4250,7 @@
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>17</v>
@@ -4267,7 +4267,7 @@
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>18</v>
@@ -4301,7 +4301,7 @@
     <row r="39" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>20</v>
@@ -4418,7 +4418,7 @@
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>0</v>
@@ -4435,7 +4435,7 @@
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
         <f t="shared" ref="B50:B63" ca="1" si="2">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>1</v>
@@ -4452,7 +4452,7 @@
     <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>2</v>
@@ -4469,7 +4469,7 @@
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>3</v>
@@ -4486,7 +4486,7 @@
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>4</v>
@@ -4503,7 +4503,7 @@
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>5</v>
@@ -4520,7 +4520,7 @@
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>6</v>
@@ -4537,7 +4537,7 @@
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>7</v>
@@ -4554,7 +4554,7 @@
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
@@ -4571,7 +4571,7 @@
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>8</v>
@@ -4588,7 +4588,7 @@
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>17</v>
@@ -4605,7 +4605,7 @@
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>18</v>
@@ -4622,7 +4622,7 @@
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>19</v>
@@ -4639,7 +4639,7 @@
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>20</v>
@@ -4656,7 +4656,7 @@
     <row r="63" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B63" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C63" s="11" t="s">
         <v>21</v>
@@ -4752,7 +4752,7 @@
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="2">
         <f t="shared" ref="B70:B84" ca="1" si="3">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>0</v>
@@ -4769,7 +4769,7 @@
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>1</v>
@@ -4786,7 +4786,7 @@
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>2</v>
@@ -4803,7 +4803,7 @@
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>3</v>
@@ -4837,7 +4837,7 @@
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>5</v>
@@ -4854,7 +4854,7 @@
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>6</v>
@@ -4871,7 +4871,7 @@
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>7</v>
@@ -4888,7 +4888,7 @@
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -4905,7 +4905,7 @@
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>8</v>
@@ -4922,7 +4922,7 @@
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>17</v>
@@ -4939,7 +4939,7 @@
     <row r="81" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B81" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C81" s="10" t="s">
         <v>18</v>
@@ -4956,7 +4956,7 @@
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>19</v>
@@ -4973,7 +4973,7 @@
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>20</v>
@@ -4990,7 +4990,7 @@
     <row r="84" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>21</v>
@@ -5097,7 +5097,7 @@
     <row r="7" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E7" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>0</v>
@@ -5127,7 +5127,7 @@
     <row r="8" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E8" s="2">
         <f t="shared" ref="E8:E21" ca="1" si="0">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>1</v>
@@ -5153,7 +5153,7 @@
     <row r="9" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>2</v>
@@ -5199,7 +5199,7 @@
     <row r="11" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>4</v>
@@ -5228,7 +5228,7 @@
     <row r="12" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>5</v>
@@ -5252,7 +5252,7 @@
     <row r="13" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>6</v>
@@ -5290,7 +5290,7 @@
     <row r="14" spans="5:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>7</v>
@@ -5328,7 +5328,7 @@
     <row r="15" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -5345,7 +5345,7 @@
     <row r="16" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>8</v>
@@ -5362,7 +5362,7 @@
     <row r="17" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>17</v>
@@ -5379,7 +5379,7 @@
     <row r="18" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>18</v>
@@ -5396,7 +5396,7 @@
     <row r="19" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>19</v>
@@ -5413,7 +5413,7 @@
     <row r="20" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>20</v>
@@ -5430,7 +5430,7 @@
     <row r="21" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>21</v>
@@ -5560,7 +5560,7 @@
     <row r="30" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>2</v>
@@ -5577,7 +5577,7 @@
     <row r="31" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>3</v>
@@ -5594,7 +5594,7 @@
     <row r="32" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>4</v>
@@ -5611,7 +5611,7 @@
     <row r="33" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>5</v>
@@ -5628,7 +5628,7 @@
     <row r="34" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>6</v>
@@ -5645,7 +5645,7 @@
     <row r="35" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>7</v>
@@ -5662,7 +5662,7 @@
     <row r="36" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -5679,7 +5679,7 @@
     <row r="37" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>8</v>
@@ -5696,7 +5696,7 @@
     <row r="38" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>17</v>
@@ -5713,7 +5713,7 @@
     <row r="39" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>18</v>
@@ -5730,7 +5730,7 @@
     <row r="40" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>19</v>
@@ -5747,7 +5747,7 @@
     <row r="41" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>20</v>
@@ -5764,7 +5764,7 @@
     <row r="42" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>21</v>
@@ -5865,7 +5865,7 @@
     <row r="51" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E51" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>0</v>
@@ -5882,7 +5882,7 @@
     <row r="52" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E52" s="2">
         <f t="shared" ref="E52:E65" ca="1" si="2">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>1</v>
@@ -5899,7 +5899,7 @@
     <row r="53" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E53" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>2</v>
@@ -5933,7 +5933,7 @@
     <row r="55" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E55" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>4</v>
@@ -5950,7 +5950,7 @@
     <row r="56" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E56" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>5</v>
@@ -5967,7 +5967,7 @@
     <row r="57" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E57" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>6</v>
@@ -5984,7 +5984,7 @@
     <row r="58" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E58" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>7</v>
@@ -6018,7 +6018,7 @@
     <row r="60" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E60" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>8</v>
@@ -6035,7 +6035,7 @@
     <row r="61" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E61" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F61" s="12" t="s">
         <v>17</v>
@@ -6052,7 +6052,7 @@
     <row r="62" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E62" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F62" s="10" t="s">
         <v>18</v>
@@ -6069,7 +6069,7 @@
     <row r="63" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E63" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>19</v>
@@ -6086,7 +6086,7 @@
     <row r="64" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E64" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>20</v>
@@ -6103,7 +6103,7 @@
     <row r="65" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E65" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F65" s="11" t="s">
         <v>21</v>
@@ -6199,7 +6199,7 @@
     <row r="72" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E72" s="2">
         <f t="shared" ref="E72:E86" ca="1" si="3">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>0</v>
@@ -6216,7 +6216,7 @@
     <row r="73" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E73" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>1</v>
@@ -6233,7 +6233,7 @@
     <row r="74" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E74" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>2</v>
@@ -6250,7 +6250,7 @@
     <row r="75" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E75" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>3</v>
@@ -6267,7 +6267,7 @@
     <row r="76" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E76" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>4</v>
@@ -6284,7 +6284,7 @@
     <row r="77" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E77" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>5</v>
@@ -6301,7 +6301,7 @@
     <row r="78" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E78" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>6</v>
@@ -6318,7 +6318,7 @@
     <row r="79" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E79" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>7</v>
@@ -6335,7 +6335,7 @@
     <row r="80" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E80" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -6369,7 +6369,7 @@
     <row r="82" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E82" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F82" s="12" t="s">
         <v>17</v>
@@ -6403,7 +6403,7 @@
     <row r="84" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E84" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>19</v>
@@ -6420,7 +6420,7 @@
     <row r="85" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E85" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>20</v>
@@ -6437,7 +6437,7 @@
     <row r="86" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E86" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F86" s="11" t="s">
         <v>21</v>
@@ -6548,7 +6548,7 @@
     <row r="9" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F9" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>0</v>
@@ -6574,7 +6574,7 @@
     <row r="10" spans="6:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F10" s="2">
         <f t="shared" ref="F10:F23" ca="1" si="0">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>1</v>
@@ -6600,7 +6600,7 @@
     <row r="11" spans="6:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>2</v>
@@ -6622,7 +6622,7 @@
     <row r="12" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>3</v>
@@ -6646,7 +6646,7 @@
     <row r="13" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>4</v>
@@ -6699,7 +6699,7 @@
     <row r="15" spans="6:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>6</v>
@@ -6737,7 +6737,7 @@
     <row r="16" spans="6:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>7</v>
@@ -6775,7 +6775,7 @@
     <row r="17" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>9</v>
@@ -6792,7 +6792,7 @@
     <row r="18" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>8</v>
@@ -6826,7 +6826,7 @@
     <row r="20" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>18</v>
@@ -6843,7 +6843,7 @@
     <row r="21" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>19</v>
@@ -6860,7 +6860,7 @@
     <row r="22" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>20</v>
@@ -6877,7 +6877,7 @@
     <row r="23" spans="6:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>21</v>
@@ -6973,7 +6973,7 @@
     <row r="30" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F30" s="2">
         <f t="shared" ref="F30:F44" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>0</v>
@@ -7007,7 +7007,7 @@
     <row r="32" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>2</v>
@@ -7024,7 +7024,7 @@
     <row r="33" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>3</v>
@@ -7041,7 +7041,7 @@
     <row r="34" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G34" s="2" t="s">
         <v>4</v>
@@ -7075,7 +7075,7 @@
     <row r="36" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>6</v>
@@ -7092,7 +7092,7 @@
     <row r="37" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>7</v>
@@ -7109,7 +7109,7 @@
     <row r="38" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>9</v>
@@ -7126,7 +7126,7 @@
     <row r="39" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G39" s="2" t="s">
         <v>8</v>
@@ -7143,7 +7143,7 @@
     <row r="40" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>17</v>
@@ -7160,7 +7160,7 @@
     <row r="41" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>18</v>
@@ -7177,7 +7177,7 @@
     <row r="42" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>19</v>
@@ -7194,7 +7194,7 @@
     <row r="43" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>20</v>
@@ -7211,7 +7211,7 @@
     <row r="44" spans="6:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>21</v>
@@ -7311,7 +7311,7 @@
     <row r="53" spans="6:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F53" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>0</v>
@@ -7345,7 +7345,7 @@
     <row r="55" spans="6:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F55" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>2</v>
@@ -7396,7 +7396,7 @@
     <row r="58" spans="6:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F58" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G58" s="2" t="s">
         <v>5</v>
@@ -7430,7 +7430,7 @@
     <row r="60" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F60" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>7</v>
@@ -7447,7 +7447,7 @@
     <row r="61" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F61" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>9</v>
@@ -7498,7 +7498,7 @@
     <row r="64" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F64" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G64" s="10" t="s">
         <v>18</v>
@@ -7532,7 +7532,7 @@
     <row r="66" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F66" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G66" s="10" t="s">
         <v>20</v>
@@ -7549,7 +7549,7 @@
     <row r="67" spans="6:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F67" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G67" s="11" t="s">
         <v>21</v>
@@ -7645,7 +7645,7 @@
     <row r="74" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F74" s="2">
         <f t="shared" ref="F74:F88" ca="1" si="3">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>0</v>
@@ -7662,7 +7662,7 @@
     <row r="75" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F75" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>1</v>
@@ -7696,7 +7696,7 @@
     <row r="77" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F77" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>3</v>
@@ -7713,7 +7713,7 @@
     <row r="78" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F78" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>4</v>
@@ -7747,7 +7747,7 @@
     <row r="80" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F80" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>6</v>
@@ -7764,7 +7764,7 @@
     <row r="81" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F81" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>7</v>
@@ -7781,7 +7781,7 @@
     <row r="82" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F82" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>9</v>
@@ -7798,7 +7798,7 @@
     <row r="83" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F83" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>8</v>
@@ -7832,7 +7832,7 @@
     <row r="85" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F85" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G85" s="10" t="s">
         <v>18</v>
@@ -7866,7 +7866,7 @@
     <row r="87" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F87" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G87" s="10" t="s">
         <v>20</v>
@@ -7883,7 +7883,7 @@
     <row r="88" spans="6:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F88" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G88" s="11" t="s">
         <v>21</v>
@@ -7991,7 +7991,7 @@
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>0</v>
@@ -8041,7 +8041,7 @@
     <row r="11" spans="2:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
@@ -8067,7 +8067,7 @@
     <row r="12" spans="2:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
@@ -8116,7 +8116,7 @@
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>5</v>
@@ -8142,7 +8142,7 @@
     <row r="15" spans="2:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>6</v>
@@ -8172,7 +8172,7 @@
     <row r="16" spans="2:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>7</v>
@@ -8210,7 +8210,7 @@
     <row r="17" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
@@ -8276,7 +8276,7 @@
     <row r="20" spans="2:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>18</v>
@@ -8310,7 +8310,7 @@
     <row r="22" spans="2:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>20</v>
@@ -8440,7 +8440,7 @@
     <row r="31" spans="2:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>1</v>
@@ -8457,7 +8457,7 @@
     <row r="32" spans="2:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>2</v>
@@ -8474,7 +8474,7 @@
     <row r="33" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>3</v>
@@ -8491,7 +8491,7 @@
     <row r="34" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>4</v>
@@ -8508,7 +8508,7 @@
     <row r="35" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>5</v>
@@ -8525,7 +8525,7 @@
     <row r="36" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>6</v>
@@ -8542,7 +8542,7 @@
     <row r="37" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>7</v>
@@ -8559,7 +8559,7 @@
     <row r="38" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
@@ -8576,7 +8576,7 @@
     <row r="39" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>8</v>
@@ -8610,7 +8610,7 @@
     <row r="41" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>18</v>
@@ -8627,7 +8627,7 @@
     <row r="42" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>19</v>
@@ -8644,7 +8644,7 @@
     <row r="43" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>20</v>
@@ -8661,7 +8661,7 @@
     <row r="44" spans="2:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C44" s="11" t="s">
         <v>21</v>
@@ -8778,7 +8778,7 @@
     <row r="54" spans="2:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B54" s="2">
         <f t="shared" ref="B54:B67" ca="1" si="2">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>1</v>
@@ -8795,7 +8795,7 @@
     <row r="55" spans="2:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B55" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>2</v>
@@ -8812,7 +8812,7 @@
     <row r="56" spans="2:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B56" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>3</v>
@@ -8846,7 +8846,7 @@
     <row r="58" spans="2:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B58" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>5</v>
@@ -8863,7 +8863,7 @@
     <row r="59" spans="2:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B59" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>6</v>
@@ -8880,7 +8880,7 @@
     <row r="60" spans="2:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B60" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>7</v>
@@ -8897,7 +8897,7 @@
     <row r="61" spans="2:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B61" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
@@ -8931,7 +8931,7 @@
     <row r="63" spans="2:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B63" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>17</v>
@@ -8948,7 +8948,7 @@
     <row r="64" spans="2:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B64" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>18</v>
@@ -8965,7 +8965,7 @@
     <row r="65" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B65" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>19</v>
@@ -8982,7 +8982,7 @@
     <row r="66" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B66" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C66" s="10" t="s">
         <v>20</v>
@@ -9095,7 +9095,7 @@
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" s="2">
         <f t="shared" ref="B74:B88" ca="1" si="3">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>0</v>
@@ -9112,7 +9112,7 @@
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>1</v>
@@ -9129,7 +9129,7 @@
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>2</v>
@@ -9146,7 +9146,7 @@
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>3</v>
@@ -9163,7 +9163,7 @@
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>4</v>
@@ -9197,7 +9197,7 @@
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>6</v>
@@ -9231,7 +9231,7 @@
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -9248,7 +9248,7 @@
     <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>8</v>
@@ -9282,7 +9282,7 @@
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>18</v>
@@ -9299,7 +9299,7 @@
     <row r="86" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B86" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C86" s="10" t="s">
         <v>19</v>
@@ -9316,7 +9316,7 @@
     <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>20</v>
@@ -9333,7 +9333,7 @@
     <row r="88" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B88" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C88" s="11" t="s">
         <v>21</v>
@@ -9437,7 +9437,7 @@
     <row r="7" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>0</v>
@@ -9461,7 +9461,7 @@
     <row r="8" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <f t="shared" ref="C8:C21" ca="1" si="0">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>1</v>
@@ -9487,7 +9487,7 @@
     <row r="9" spans="3:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>2</v>
@@ -9513,7 +9513,7 @@
     <row r="10" spans="3:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
@@ -9535,7 +9535,7 @@
     <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>4</v>
@@ -9562,7 +9562,7 @@
     <row r="12" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>5</v>
@@ -9588,7 +9588,7 @@
     <row r="13" spans="3:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -9618,7 +9618,7 @@
     <row r="14" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>7</v>
@@ -9656,7 +9656,7 @@
     <row r="15" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
@@ -9688,7 +9688,7 @@
     <row r="16" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>8</v>
@@ -9705,7 +9705,7 @@
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>17</v>
@@ -9722,7 +9722,7 @@
     <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18" s="10" t="s">
         <v>18</v>
@@ -9739,7 +9739,7 @@
     <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>19</v>
@@ -9756,7 +9756,7 @@
     <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>20</v>
@@ -9773,7 +9773,7 @@
     <row r="21" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>21</v>
@@ -9869,7 +9869,7 @@
     <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C28" s="2">
         <f t="shared" ref="C28:C42" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>0</v>
@@ -9886,7 +9886,7 @@
     <row r="29" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>1</v>
@@ -9903,7 +9903,7 @@
     <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>2</v>
@@ -9920,7 +9920,7 @@
     <row r="31" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>3</v>
@@ -9937,7 +9937,7 @@
     <row r="32" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>4</v>
@@ -9954,7 +9954,7 @@
     <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>5</v>
@@ -9971,7 +9971,7 @@
     <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
@@ -9988,7 +9988,7 @@
     <row r="35" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>7</v>
@@ -10005,7 +10005,7 @@
     <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>9</v>
@@ -10022,7 +10022,7 @@
     <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>8</v>
@@ -10039,7 +10039,7 @@
     <row r="38" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" s="12" t="s">
         <v>17</v>
@@ -10056,7 +10056,7 @@
     <row r="39" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>18</v>
@@ -10073,7 +10073,7 @@
     <row r="40" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>19</v>
@@ -10107,7 +10107,7 @@
     <row r="42" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>21</v>
@@ -10207,7 +10207,7 @@
     <row r="51" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C51" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>0</v>
@@ -10224,7 +10224,7 @@
     <row r="52" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
         <f t="shared" ref="C52:C65" ca="1" si="2">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>1</v>
@@ -10241,7 +10241,7 @@
     <row r="53" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>2</v>
@@ -10258,7 +10258,7 @@
     <row r="54" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>3</v>
@@ -10275,7 +10275,7 @@
     <row r="55" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C55" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>4</v>
@@ -10309,7 +10309,7 @@
     <row r="57" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C57" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>6</v>
@@ -10326,7 +10326,7 @@
     <row r="58" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C58" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>7</v>
@@ -10343,7 +10343,7 @@
     <row r="59" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C59" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>9</v>
@@ -10360,7 +10360,7 @@
     <row r="60" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C60" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D60" s="2" t="s">
         <v>8</v>
@@ -10377,7 +10377,7 @@
     <row r="61" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C61" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>17</v>
@@ -10394,7 +10394,7 @@
     <row r="62" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C62" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>18</v>
@@ -10411,7 +10411,7 @@
     <row r="63" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C63" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D63" s="10" t="s">
         <v>19</v>
@@ -10428,7 +10428,7 @@
     <row r="64" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C64" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>20</v>
@@ -10445,7 +10445,7 @@
     <row r="65" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C65" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>21</v>
@@ -10541,7 +10541,7 @@
     <row r="72" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C72" s="2">
         <f t="shared" ref="C72:C86" ca="1" si="3">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>0</v>
@@ -10575,7 +10575,7 @@
     <row r="74" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C74" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>2</v>
@@ -10609,7 +10609,7 @@
     <row r="76" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C76" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>4</v>
@@ -10626,7 +10626,7 @@
     <row r="77" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C77" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D77" s="2" t="s">
         <v>5</v>
@@ -10643,7 +10643,7 @@
     <row r="78" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C78" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>6</v>
@@ -10660,7 +10660,7 @@
     <row r="79" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C79" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>7</v>
@@ -10677,7 +10677,7 @@
     <row r="80" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C80" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>9</v>
@@ -10711,7 +10711,7 @@
     <row r="82" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C82" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D82" s="12" t="s">
         <v>17</v>
@@ -10728,7 +10728,7 @@
     <row r="83" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C83" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" s="10" t="s">
         <v>18</v>
@@ -10745,7 +10745,7 @@
     <row r="84" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C84" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>19</v>
@@ -10762,7 +10762,7 @@
     <row r="85" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C85" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>20</v>
@@ -10779,7 +10779,7 @@
     <row r="86" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C86" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>21</v>
@@ -10895,7 +10895,7 @@
     <row r="8" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E8" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>0</v>
@@ -10921,7 +10921,7 @@
     <row r="9" spans="5:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E9" s="2">
         <f t="shared" ref="E9:E22" ca="1" si="0">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>1</v>
@@ -10947,7 +10947,7 @@
     <row r="10" spans="5:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>2</v>
@@ -10969,7 +10969,7 @@
     <row r="11" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>3</v>
@@ -10993,7 +10993,7 @@
     <row r="12" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>4</v>
@@ -11046,7 +11046,7 @@
     <row r="14" spans="5:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>6</v>
@@ -11084,7 +11084,7 @@
     <row r="15" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>7</v>
@@ -11122,7 +11122,7 @@
     <row r="16" spans="5:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -11156,7 +11156,7 @@
     <row r="18" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>17</v>
@@ -11173,7 +11173,7 @@
     <row r="19" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>18</v>
@@ -11207,7 +11207,7 @@
     <row r="21" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>20</v>
@@ -11224,7 +11224,7 @@
     <row r="22" spans="5:14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>21</v>
@@ -11320,7 +11320,7 @@
     <row r="29" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E29" s="2">
         <f t="shared" ref="E29:E43" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>0</v>
@@ -11337,7 +11337,7 @@
     <row r="30" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>1</v>
@@ -11354,7 +11354,7 @@
     <row r="31" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>2</v>
@@ -11388,7 +11388,7 @@
     <row r="33" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>4</v>
@@ -11405,7 +11405,7 @@
     <row r="34" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>5</v>
@@ -11422,7 +11422,7 @@
     <row r="35" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>6</v>
@@ -11439,7 +11439,7 @@
     <row r="36" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>7</v>
@@ -11456,7 +11456,7 @@
     <row r="37" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -11473,7 +11473,7 @@
     <row r="38" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>8</v>
@@ -11490,7 +11490,7 @@
     <row r="39" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>17</v>
@@ -11507,7 +11507,7 @@
     <row r="40" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>18</v>
@@ -11524,7 +11524,7 @@
     <row r="41" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>19</v>
@@ -11541,7 +11541,7 @@
     <row r="42" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>20</v>
@@ -11659,7 +11659,7 @@
     <row r="52" spans="5:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E52" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>0</v>
@@ -11676,7 +11676,7 @@
     <row r="53" spans="5:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E53" s="2">
         <f t="shared" ref="E53:E66" ca="1" si="2">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>1</v>
@@ -11693,7 +11693,7 @@
     <row r="54" spans="5:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E54" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>2</v>
@@ -11710,7 +11710,7 @@
     <row r="55" spans="5:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E55" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>3</v>
@@ -11727,7 +11727,7 @@
     <row r="56" spans="5:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E56" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>4</v>
@@ -11744,7 +11744,7 @@
     <row r="57" spans="5:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E57" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>5</v>
@@ -11761,7 +11761,7 @@
     <row r="58" spans="5:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E58" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>6</v>
@@ -11795,7 +11795,7 @@
     <row r="60" spans="5:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E60" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -11812,7 +11812,7 @@
     <row r="61" spans="5:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E61" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>8</v>
@@ -11829,7 +11829,7 @@
     <row r="62" spans="5:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E62" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62" s="12" t="s">
         <v>17</v>
@@ -11846,7 +11846,7 @@
     <row r="63" spans="5:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E63" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>18</v>
@@ -11863,7 +11863,7 @@
     <row r="64" spans="5:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E64" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>19</v>
@@ -11897,7 +11897,7 @@
     <row r="66" spans="5:14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E66" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F66" s="11" t="s">
         <v>21</v>
@@ -12027,7 +12027,7 @@
     <row r="75" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E75" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>2</v>
@@ -12044,7 +12044,7 @@
     <row r="76" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E76" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>3</v>
@@ -12061,7 +12061,7 @@
     <row r="77" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E77" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>4</v>
@@ -12078,7 +12078,7 @@
     <row r="78" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E78" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>5</v>
@@ -12095,7 +12095,7 @@
     <row r="79" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E79" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>6</v>
@@ -12129,7 +12129,7 @@
     <row r="81" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E81" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -12146,7 +12146,7 @@
     <row r="82" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E82" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>8</v>
@@ -12163,7 +12163,7 @@
     <row r="83" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E83" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F83" s="12" t="s">
         <v>17</v>
@@ -12180,7 +12180,7 @@
     <row r="84" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E84" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>18</v>
@@ -12197,7 +12197,7 @@
     <row r="85" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E85" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>19</v>
@@ -12269,8 +12269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:T88"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="N87" sqref="N87"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12345,7 +12345,7 @@
     <row r="7" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D7" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>0</v>
@@ -12419,7 +12419,7 @@
     <row r="10" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>3</v>
@@ -12443,7 +12443,7 @@
     <row r="11" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>4</v>
@@ -12472,7 +12472,7 @@
     <row r="12" spans="4:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>5</v>
@@ -12534,7 +12534,7 @@
     <row r="14" spans="4:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>7</v>
@@ -12572,7 +12572,7 @@
     <row r="15" spans="4:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>9</v>
@@ -12589,7 +12589,7 @@
     <row r="16" spans="4:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>8</v>
@@ -12606,7 +12606,7 @@
     <row r="17" spans="4:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>17</v>
@@ -12623,7 +12623,7 @@
     <row r="18" spans="4:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>18</v>
@@ -12640,7 +12640,7 @@
     <row r="19" spans="4:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>19</v>
@@ -12657,7 +12657,7 @@
     <row r="20" spans="4:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>20</v>
@@ -12674,7 +12674,7 @@
     <row r="21" spans="4:13" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>21</v>
@@ -12770,7 +12770,7 @@
     <row r="28" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D28" s="2">
         <f t="shared" ref="D28:D42" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>0</v>
@@ -12804,7 +12804,7 @@
     <row r="30" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>2</v>
@@ -12821,7 +12821,7 @@
     <row r="31" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>3</v>
@@ -12855,7 +12855,7 @@
     <row r="33" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>5</v>
@@ -12872,7 +12872,7 @@
     <row r="34" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>6</v>
@@ -12889,7 +12889,7 @@
     <row r="35" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>7</v>
@@ -12906,7 +12906,7 @@
     <row r="36" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>9</v>
@@ -12923,7 +12923,7 @@
     <row r="37" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>8</v>
@@ -12940,7 +12940,7 @@
     <row r="38" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>17</v>
@@ -12957,7 +12957,7 @@
     <row r="39" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>18</v>
@@ -12974,7 +12974,7 @@
     <row r="40" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>19</v>
@@ -12991,7 +12991,7 @@
     <row r="41" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>20</v>
@@ -13108,7 +13108,7 @@
     <row r="51" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D51" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>0</v>
@@ -13125,7 +13125,7 @@
     <row r="52" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D52" s="2">
         <f t="shared" ref="D52:D65" ca="1" si="2">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>1</v>
@@ -13142,7 +13142,7 @@
     <row r="53" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D53" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>2</v>
@@ -13176,7 +13176,7 @@
     <row r="55" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D55" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>4</v>
@@ -13193,7 +13193,7 @@
     <row r="56" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D56" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>5</v>
@@ -13210,7 +13210,7 @@
     <row r="57" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D57" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>6</v>
@@ -13244,7 +13244,7 @@
     <row r="59" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D59" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>9</v>
@@ -13261,7 +13261,7 @@
     <row r="60" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D60" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>8</v>
@@ -13278,7 +13278,7 @@
     <row r="61" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D61" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>17</v>
@@ -13295,7 +13295,7 @@
     <row r="62" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D62" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>18</v>
@@ -13312,7 +13312,7 @@
     <row r="63" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D63" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>19</v>
@@ -13329,7 +13329,7 @@
     <row r="64" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D64" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>20</v>
@@ -13346,7 +13346,7 @@
     <row r="65" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D65" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>21</v>
@@ -13442,7 +13442,7 @@
     <row r="72" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D72" s="2">
         <f t="shared" ref="D72:D86" ca="1" si="3">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>0</v>
@@ -13476,7 +13476,7 @@
     <row r="74" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D74" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>2</v>
@@ -13493,7 +13493,7 @@
     <row r="75" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D75" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>3</v>
@@ -13510,7 +13510,7 @@
     <row r="76" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D76" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>4</v>
@@ -13527,7 +13527,7 @@
     <row r="77" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D77" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>5</v>
@@ -13595,7 +13595,7 @@
     <row r="81" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D81" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>8</v>
@@ -13629,7 +13629,7 @@
     <row r="83" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D83" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>18</v>
@@ -13646,7 +13646,7 @@
     <row r="84" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D84" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>19</v>
@@ -13663,7 +13663,7 @@
     <row r="85" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D85" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>20</v>
@@ -13680,7 +13680,7 @@
     <row r="86" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D86" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E86" s="11" t="s">
         <v>21</v>

--- a/Testning/För Examensarbetar som placerar missljudet.xlsx
+++ b/Testning/För Examensarbetar som placerar missljudet.xlsx
@@ -677,7 +677,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -775,7 +775,7 @@
       <c r="C5" s="18"/>
       <c r="D5" s="2">
         <f t="shared" ref="D5:D18" ca="1" si="0">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>1</v>
@@ -792,7 +792,7 @@
     <row r="6" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>2</v>
@@ -809,7 +809,7 @@
     <row r="7" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>3</v>
@@ -833,7 +833,7 @@
     <row r="8" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>4</v>
@@ -862,7 +862,7 @@
     <row r="9" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
@@ -888,7 +888,7 @@
     <row r="10" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>6</v>
@@ -916,7 +916,7 @@
     <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>7</v>
@@ -946,7 +946,7 @@
     <row r="12" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>9</v>
@@ -972,7 +972,7 @@
     <row r="13" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>8</v>
@@ -996,7 +996,7 @@
     <row r="14" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D14" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>17</v>
@@ -1028,7 +1028,7 @@
     <row r="15" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>18</v>
@@ -1060,7 +1060,7 @@
     <row r="16" spans="3:20" x14ac:dyDescent="0.25">
       <c r="D16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>19</v>
@@ -1077,7 +1077,7 @@
     <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>20</v>
@@ -1094,7 +1094,7 @@
     <row r="18" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>21</v>
@@ -1190,7 +1190,7 @@
     <row r="25" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D25" s="2">
         <f t="shared" ref="D25:D39" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>0</v>
@@ -1207,7 +1207,7 @@
     <row r="26" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>1</v>
@@ -1224,7 +1224,7 @@
     <row r="27" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>2</v>
@@ -1241,7 +1241,7 @@
     <row r="28" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>3</v>
@@ -1258,7 +1258,7 @@
     <row r="29" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>4</v>
@@ -1275,7 +1275,7 @@
     <row r="30" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>5</v>
@@ -1292,7 +1292,7 @@
     <row r="31" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>6</v>
@@ -1326,7 +1326,7 @@
     <row r="33" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>9</v>
@@ -1343,7 +1343,7 @@
     <row r="34" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>8</v>
@@ -1377,7 +1377,7 @@
     <row r="36" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>18</v>
@@ -1394,7 +1394,7 @@
     <row r="37" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>19</v>
@@ -1411,7 +1411,7 @@
     <row r="38" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>20</v>
@@ -1428,7 +1428,7 @@
     <row r="39" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>21</v>
@@ -1529,7 +1529,7 @@
     <row r="48" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D48" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>0</v>
@@ -1546,7 +1546,7 @@
     <row r="49" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D49" s="2">
         <f t="shared" ref="D49:D62" ca="1" si="2">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>1</v>
@@ -1563,7 +1563,7 @@
     <row r="50" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D50" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>2</v>
@@ -1580,7 +1580,7 @@
     <row r="51" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D51" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>3</v>
@@ -1597,7 +1597,7 @@
     <row r="52" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D52" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>4</v>
@@ -1614,7 +1614,7 @@
     <row r="53" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D53" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>5</v>
@@ -1631,7 +1631,7 @@
     <row r="54" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D54" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>6</v>
@@ -1648,7 +1648,7 @@
     <row r="55" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D55" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>7</v>
@@ -1682,7 +1682,7 @@
     <row r="57" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D57" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>8</v>
@@ -1699,7 +1699,7 @@
     <row r="58" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D58" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E58" s="12" t="s">
         <v>17</v>
@@ -1733,7 +1733,7 @@
     <row r="60" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D60" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>19</v>
@@ -1750,7 +1750,7 @@
     <row r="61" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D61" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>20</v>
@@ -1767,7 +1767,7 @@
     <row r="62" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D62" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>21</v>
@@ -1863,7 +1863,7 @@
     <row r="69" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D69" s="2">
         <f t="shared" ref="D69:D83" ca="1" si="3">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>0</v>
@@ -1880,7 +1880,7 @@
     <row r="70" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D70" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>1</v>
@@ -1897,7 +1897,7 @@
     <row r="71" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D71" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>2</v>
@@ -1914,7 +1914,7 @@
     <row r="72" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D72" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>3</v>
@@ -1931,7 +1931,7 @@
     <row r="73" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D73" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>4</v>
@@ -1948,7 +1948,7 @@
     <row r="74" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D74" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>5</v>
@@ -1965,7 +1965,7 @@
     <row r="75" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D75" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>6</v>
@@ -1982,7 +1982,7 @@
     <row r="76" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D76" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>7</v>
@@ -1999,7 +1999,7 @@
     <row r="77" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D77" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>9</v>
@@ -2033,7 +2033,7 @@
     <row r="79" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D79" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E79" s="12" t="s">
         <v>17</v>
@@ -2050,7 +2050,7 @@
     <row r="80" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D80" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>18</v>
@@ -2067,7 +2067,7 @@
     <row r="81" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D81" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>19</v>
@@ -2084,7 +2084,7 @@
     <row r="82" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D82" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E82" s="10" t="s">
         <v>20</v>
@@ -2220,7 +2220,7 @@
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <f t="shared" ref="A5:A18" ca="1" si="0">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>1</v>
@@ -2244,7 +2244,7 @@
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>2</v>
@@ -2270,7 +2270,7 @@
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>3</v>
@@ -2296,7 +2296,7 @@
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -2321,7 +2321,7 @@
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>5</v>
@@ -2377,7 +2377,7 @@
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>7</v>
@@ -2474,7 +2474,7 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>17</v>
@@ -2491,7 +2491,7 @@
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B15" s="10" t="s">
         <v>18</v>
@@ -2508,7 +2508,7 @@
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>19</v>
@@ -2525,7 +2525,7 @@
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>20</v>
@@ -2638,7 +2638,7 @@
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <f t="shared" ref="A25:A39" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>0</v>
@@ -2655,7 +2655,7 @@
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>1</v>
@@ -2672,7 +2672,7 @@
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>2</v>
@@ -2706,7 +2706,7 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>4</v>
@@ -2723,7 +2723,7 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>5</v>
@@ -2740,7 +2740,7 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>6</v>
@@ -2757,7 +2757,7 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>7</v>
@@ -2774,7 +2774,7 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>9</v>
@@ -2791,7 +2791,7 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>8</v>
@@ -2808,7 +2808,7 @@
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="16">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>17</v>
@@ -2825,7 +2825,7 @@
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>18</v>
@@ -2842,7 +2842,7 @@
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>19</v>
@@ -3011,7 +3011,7 @@
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>2</v>
@@ -3028,7 +3028,7 @@
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>3</v>
@@ -3045,7 +3045,7 @@
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>4</v>
@@ -3096,7 +3096,7 @@
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>7</v>
@@ -3113,7 +3113,7 @@
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>9</v>
@@ -3147,7 +3147,7 @@
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B58" s="12" t="s">
         <v>17</v>
@@ -3164,7 +3164,7 @@
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B59" s="10" t="s">
         <v>18</v>
@@ -3198,7 +3198,7 @@
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B61" s="10" t="s">
         <v>20</v>
@@ -3311,7 +3311,7 @@
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <f t="shared" ref="A69:A83" ca="1" si="3">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>0</v>
@@ -3362,7 +3362,7 @@
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>3</v>
@@ -3379,7 +3379,7 @@
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>4</v>
@@ -3396,7 +3396,7 @@
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>5</v>
@@ -3413,7 +3413,7 @@
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>6</v>
@@ -3430,7 +3430,7 @@
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>7</v>
@@ -3447,7 +3447,7 @@
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>9</v>
@@ -3464,7 +3464,7 @@
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>8</v>
@@ -3481,7 +3481,7 @@
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B79" s="12" t="s">
         <v>17</v>
@@ -3498,7 +3498,7 @@
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B80" s="10" t="s">
         <v>18</v>
@@ -3515,7 +3515,7 @@
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B81" s="10" t="s">
         <v>19</v>
@@ -3532,7 +3532,7 @@
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B82" s="10" t="s">
         <v>20</v>
@@ -3549,7 +3549,7 @@
     <row r="83" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B83" s="11" t="s">
         <v>21</v>
@@ -3648,7 +3648,7 @@
     <row r="5" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>0</v>
@@ -3665,7 +3665,7 @@
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <f t="shared" ref="B6:B19" ca="1" si="0">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>1</v>
@@ -3689,7 +3689,7 @@
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
@@ -3715,7 +3715,7 @@
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>3</v>
@@ -3741,7 +3741,7 @@
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>4</v>
@@ -3790,7 +3790,7 @@
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>6</v>
@@ -3822,7 +3822,7 @@
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>7</v>
@@ -3852,7 +3852,7 @@
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
@@ -3916,7 +3916,7 @@
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C15" s="12" t="s">
         <v>17</v>
@@ -3933,7 +3933,7 @@
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>18</v>
@@ -3950,7 +3950,7 @@
     <row r="17" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C17" s="10" t="s">
         <v>19</v>
@@ -3967,7 +3967,7 @@
     <row r="18" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>20</v>
@@ -3984,7 +3984,7 @@
     <row r="19" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>21</v>
@@ -4080,7 +4080,7 @@
     <row r="26" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B26" s="2">
         <f t="shared" ref="B26:B40" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>0</v>
@@ -4114,7 +4114,7 @@
     <row r="28" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B28" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>2</v>
@@ -4131,7 +4131,7 @@
     <row r="29" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>3</v>
@@ -4148,7 +4148,7 @@
     <row r="30" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>4</v>
@@ -4165,7 +4165,7 @@
     <row r="31" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>5</v>
@@ -4182,7 +4182,7 @@
     <row r="32" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>6</v>
@@ -4199,7 +4199,7 @@
     <row r="33" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>7</v>
@@ -4216,7 +4216,7 @@
     <row r="34" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
@@ -4233,7 +4233,7 @@
     <row r="35" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>8</v>
@@ -4250,7 +4250,7 @@
     <row r="36" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>17</v>
@@ -4267,7 +4267,7 @@
     <row r="37" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C37" s="10" t="s">
         <v>18</v>
@@ -4318,7 +4318,7 @@
     <row r="40" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C40" s="11" t="s">
         <v>21</v>
@@ -4418,7 +4418,7 @@
     <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>0</v>
@@ -4435,7 +4435,7 @@
     <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="2">
         <f t="shared" ref="B50:B63" ca="1" si="2">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>1</v>
@@ -4469,7 +4469,7 @@
     <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>3</v>
@@ -4486,7 +4486,7 @@
     <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>4</v>
@@ -4503,7 +4503,7 @@
     <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>5</v>
@@ -4520,7 +4520,7 @@
     <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>6</v>
@@ -4537,7 +4537,7 @@
     <row r="56" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B56" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>7</v>
@@ -4554,7 +4554,7 @@
     <row r="57" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B57" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
@@ -4571,7 +4571,7 @@
     <row r="58" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B58" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>8</v>
@@ -4588,7 +4588,7 @@
     <row r="59" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B59" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>17</v>
@@ -4605,7 +4605,7 @@
     <row r="60" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B60" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>18</v>
@@ -4622,7 +4622,7 @@
     <row r="61" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B61" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" s="10" t="s">
         <v>19</v>
@@ -4639,7 +4639,7 @@
     <row r="62" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B62" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C62" s="10" t="s">
         <v>20</v>
@@ -4752,7 +4752,7 @@
     <row r="70" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B70" s="2">
         <f t="shared" ref="B70:B84" ca="1" si="3">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>0</v>
@@ -4769,7 +4769,7 @@
     <row r="71" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B71" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>1</v>
@@ -4786,7 +4786,7 @@
     <row r="72" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B72" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>2</v>
@@ -4803,7 +4803,7 @@
     <row r="73" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B73" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>3</v>
@@ -4837,7 +4837,7 @@
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>5</v>
@@ -4854,7 +4854,7 @@
     <row r="76" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B76" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>6</v>
@@ -4871,7 +4871,7 @@
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>7</v>
@@ -4888,7 +4888,7 @@
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
@@ -4905,7 +4905,7 @@
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>8</v>
@@ -4922,7 +4922,7 @@
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C80" s="12" t="s">
         <v>17</v>
@@ -4956,7 +4956,7 @@
     <row r="82" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B82" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C82" s="10" t="s">
         <v>19</v>
@@ -4973,7 +4973,7 @@
     <row r="83" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B83" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C83" s="10" t="s">
         <v>20</v>
@@ -4990,7 +4990,7 @@
     <row r="84" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B84" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>21</v>
@@ -5097,7 +5097,7 @@
     <row r="7" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E7" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>0</v>
@@ -5127,7 +5127,7 @@
     <row r="8" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E8" s="2">
         <f t="shared" ref="E8:E21" ca="1" si="0">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>1</v>
@@ -5153,7 +5153,7 @@
     <row r="9" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>2</v>
@@ -5175,7 +5175,7 @@
     <row r="10" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>3</v>
@@ -5199,7 +5199,7 @@
     <row r="11" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>4</v>
@@ -5252,7 +5252,7 @@
     <row r="13" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>6</v>
@@ -5328,7 +5328,7 @@
     <row r="15" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>9</v>
@@ -5345,7 +5345,7 @@
     <row r="16" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>8</v>
@@ -5362,7 +5362,7 @@
     <row r="17" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>17</v>
@@ -5396,7 +5396,7 @@
     <row r="19" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>19</v>
@@ -5413,7 +5413,7 @@
     <row r="20" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>20</v>
@@ -5526,7 +5526,7 @@
     <row r="28" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E28" s="2">
         <f t="shared" ref="E28:E42" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>0</v>
@@ -5560,7 +5560,7 @@
     <row r="30" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>2</v>
@@ -5577,7 +5577,7 @@
     <row r="31" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>3</v>
@@ -5594,7 +5594,7 @@
     <row r="32" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>4</v>
@@ -5611,7 +5611,7 @@
     <row r="33" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>5</v>
@@ -5628,7 +5628,7 @@
     <row r="34" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>6</v>
@@ -5645,7 +5645,7 @@
     <row r="35" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>7</v>
@@ -5662,7 +5662,7 @@
     <row r="36" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>9</v>
@@ -5679,7 +5679,7 @@
     <row r="37" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>8</v>
@@ -5696,7 +5696,7 @@
     <row r="38" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F38" s="12" t="s">
         <v>17</v>
@@ -5713,7 +5713,7 @@
     <row r="39" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>18</v>
@@ -5730,7 +5730,7 @@
     <row r="40" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>19</v>
@@ -5764,7 +5764,7 @@
     <row r="42" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" s="11" t="s">
         <v>21</v>
@@ -5865,7 +5865,7 @@
     <row r="51" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E51" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>0</v>
@@ -5882,7 +5882,7 @@
     <row r="52" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E52" s="2">
         <f t="shared" ref="E52:E65" ca="1" si="2">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>1</v>
@@ -5899,7 +5899,7 @@
     <row r="53" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E53" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>2</v>
@@ -5950,7 +5950,7 @@
     <row r="56" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E56" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>5</v>
@@ -5967,7 +5967,7 @@
     <row r="57" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E57" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>6</v>
@@ -5984,7 +5984,7 @@
     <row r="58" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E58" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>7</v>
@@ -6001,7 +6001,7 @@
     <row r="59" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E59" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -6018,7 +6018,7 @@
     <row r="60" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E60" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>8</v>
@@ -6035,7 +6035,7 @@
     <row r="61" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E61" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F61" s="12" t="s">
         <v>17</v>
@@ -6069,7 +6069,7 @@
     <row r="63" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E63" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>19</v>
@@ -6086,7 +6086,7 @@
     <row r="64" spans="5:12" x14ac:dyDescent="0.25">
       <c r="E64" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>20</v>
@@ -6103,7 +6103,7 @@
     <row r="65" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E65" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F65" s="11" t="s">
         <v>21</v>
@@ -6199,7 +6199,7 @@
     <row r="72" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E72" s="2">
         <f t="shared" ref="E72:E86" ca="1" si="3">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>0</v>
@@ -6216,7 +6216,7 @@
     <row r="73" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E73" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>1</v>
@@ -6233,7 +6233,7 @@
     <row r="74" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E74" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>2</v>
@@ -6250,7 +6250,7 @@
     <row r="75" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E75" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>3</v>
@@ -6284,7 +6284,7 @@
     <row r="77" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E77" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>5</v>
@@ -6301,7 +6301,7 @@
     <row r="78" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E78" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>6</v>
@@ -6318,7 +6318,7 @@
     <row r="79" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E79" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>7</v>
@@ -6335,7 +6335,7 @@
     <row r="80" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E80" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -6352,7 +6352,7 @@
     <row r="81" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E81" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>8</v>
@@ -6386,7 +6386,7 @@
     <row r="83" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E83" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F83" s="10" t="s">
         <v>18</v>
@@ -6403,7 +6403,7 @@
     <row r="84" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E84" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>19</v>
@@ -6420,7 +6420,7 @@
     <row r="85" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E85" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>20</v>
@@ -6437,7 +6437,7 @@
     <row r="86" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E86" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F86" s="11" t="s">
         <v>21</v>
@@ -6548,7 +6548,7 @@
     <row r="9" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F9" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>0</v>
@@ -6600,7 +6600,7 @@
     <row r="11" spans="6:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>2</v>
@@ -6622,7 +6622,7 @@
     <row r="12" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>3</v>
@@ -6646,7 +6646,7 @@
     <row r="13" spans="6:24" x14ac:dyDescent="0.25">
       <c r="F13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>4</v>
@@ -6699,7 +6699,7 @@
     <row r="15" spans="6:24" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>6</v>
@@ -6737,7 +6737,7 @@
     <row r="16" spans="6:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>7</v>
@@ -6792,7 +6792,7 @@
     <row r="18" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>8</v>
@@ -6809,7 +6809,7 @@
     <row r="19" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G19" s="12" t="s">
         <v>17</v>
@@ -6826,7 +6826,7 @@
     <row r="20" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G20" s="10" t="s">
         <v>18</v>
@@ -6843,7 +6843,7 @@
     <row r="21" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G21" s="10" t="s">
         <v>19</v>
@@ -6860,7 +6860,7 @@
     <row r="22" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G22" s="10" t="s">
         <v>20</v>
@@ -6877,7 +6877,7 @@
     <row r="23" spans="6:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G23" s="11" t="s">
         <v>21</v>
@@ -6973,7 +6973,7 @@
     <row r="30" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F30" s="2">
         <f t="shared" ref="F30:F44" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>0</v>
@@ -6990,7 +6990,7 @@
     <row r="31" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>1</v>
@@ -7007,7 +7007,7 @@
     <row r="32" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G32" s="2" t="s">
         <v>2</v>
@@ -7024,7 +7024,7 @@
     <row r="33" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G33" s="2" t="s">
         <v>3</v>
@@ -7058,7 +7058,7 @@
     <row r="35" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G35" s="2" t="s">
         <v>5</v>
@@ -7075,7 +7075,7 @@
     <row r="36" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G36" s="2" t="s">
         <v>6</v>
@@ -7092,7 +7092,7 @@
     <row r="37" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G37" s="2" t="s">
         <v>7</v>
@@ -7109,7 +7109,7 @@
     <row r="38" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G38" s="2" t="s">
         <v>9</v>
@@ -7143,7 +7143,7 @@
     <row r="40" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G40" s="12" t="s">
         <v>17</v>
@@ -7160,7 +7160,7 @@
     <row r="41" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G41" s="10" t="s">
         <v>18</v>
@@ -7177,7 +7177,7 @@
     <row r="42" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G42" s="10" t="s">
         <v>19</v>
@@ -7194,7 +7194,7 @@
     <row r="43" spans="6:15" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F43" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G43" s="10" t="s">
         <v>20</v>
@@ -7211,7 +7211,7 @@
     <row r="44" spans="6:15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F44" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G44" s="11" t="s">
         <v>21</v>
@@ -7311,7 +7311,7 @@
     <row r="53" spans="6:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F53" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>0</v>
@@ -7328,7 +7328,7 @@
     <row r="54" spans="6:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F54" s="2">
         <f t="shared" ref="F54:F67" ca="1" si="2">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>1</v>
@@ -7345,7 +7345,7 @@
     <row r="55" spans="6:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F55" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>2</v>
@@ -7362,7 +7362,7 @@
     <row r="56" spans="6:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F56" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G56" s="2" t="s">
         <v>3</v>
@@ -7379,7 +7379,7 @@
     <row r="57" spans="6:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="F57" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57" s="2" t="s">
         <v>4</v>
@@ -7430,7 +7430,7 @@
     <row r="60" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F60" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G60" s="2" t="s">
         <v>7</v>
@@ -7447,7 +7447,7 @@
     <row r="61" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F61" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G61" s="2" t="s">
         <v>9</v>
@@ -7464,7 +7464,7 @@
     <row r="62" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F62" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G62" s="2" t="s">
         <v>8</v>
@@ -7481,7 +7481,7 @@
     <row r="63" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F63" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G63" s="12" t="s">
         <v>17</v>
@@ -7498,7 +7498,7 @@
     <row r="64" spans="6:13" x14ac:dyDescent="0.25">
       <c r="F64" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G64" s="10" t="s">
         <v>18</v>
@@ -7515,7 +7515,7 @@
     <row r="65" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F65" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G65" s="10" t="s">
         <v>19</v>
@@ -7532,7 +7532,7 @@
     <row r="66" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F66" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G66" s="10" t="s">
         <v>20</v>
@@ -7549,7 +7549,7 @@
     <row r="67" spans="6:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F67" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G67" s="11" t="s">
         <v>21</v>
@@ -7645,7 +7645,7 @@
     <row r="74" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F74" s="2">
         <f t="shared" ref="F74:F88" ca="1" si="3">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G74" s="2" t="s">
         <v>0</v>
@@ -7662,7 +7662,7 @@
     <row r="75" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F75" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G75" s="2" t="s">
         <v>1</v>
@@ -7679,7 +7679,7 @@
     <row r="76" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F76" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G76" s="2" t="s">
         <v>2</v>
@@ -7696,7 +7696,7 @@
     <row r="77" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F77" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G77" s="2" t="s">
         <v>3</v>
@@ -7713,7 +7713,7 @@
     <row r="78" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F78" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G78" s="2" t="s">
         <v>4</v>
@@ -7730,7 +7730,7 @@
     <row r="79" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F79" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G79" s="2" t="s">
         <v>5</v>
@@ -7747,7 +7747,7 @@
     <row r="80" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F80" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G80" s="2" t="s">
         <v>6</v>
@@ -7764,7 +7764,7 @@
     <row r="81" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F81" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G81" s="2" t="s">
         <v>7</v>
@@ -7781,7 +7781,7 @@
     <row r="82" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F82" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G82" s="2" t="s">
         <v>9</v>
@@ -7798,7 +7798,7 @@
     <row r="83" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F83" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G83" s="2" t="s">
         <v>8</v>
@@ -7849,7 +7849,7 @@
     <row r="86" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F86" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G86" s="10" t="s">
         <v>19</v>
@@ -7866,7 +7866,7 @@
     <row r="87" spans="6:15" x14ac:dyDescent="0.25">
       <c r="F87" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G87" s="10" t="s">
         <v>20</v>
@@ -7883,7 +7883,7 @@
     <row r="88" spans="6:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F88" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G88" s="11" t="s">
         <v>21</v>
@@ -7991,7 +7991,7 @@
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>0</v>
@@ -8015,7 +8015,7 @@
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="2">
         <f t="shared" ref="B10:B23" ca="1" si="0">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>1</v>
@@ -8041,7 +8041,7 @@
     <row r="11" spans="2:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
@@ -8067,7 +8067,7 @@
     <row r="12" spans="2:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>3</v>
@@ -8089,7 +8089,7 @@
     <row r="13" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>4</v>
@@ -8116,7 +8116,7 @@
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>5</v>
@@ -8172,7 +8172,7 @@
     <row r="16" spans="2:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>7</v>
@@ -8210,7 +8210,7 @@
     <row r="17" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
@@ -8242,7 +8242,7 @@
     <row r="18" spans="2:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>8</v>
@@ -8293,7 +8293,7 @@
     <row r="21" spans="2:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>19</v>
@@ -8310,7 +8310,7 @@
     <row r="22" spans="2:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>20</v>
@@ -8327,7 +8327,7 @@
     <row r="23" spans="2:19" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C23" s="11" t="s">
         <v>21</v>
@@ -8423,7 +8423,7 @@
     <row r="30" spans="2:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B30" s="2">
         <f t="shared" ref="B30:B44" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>0</v>
@@ -8457,7 +8457,7 @@
     <row r="32" spans="2:19" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>2</v>
@@ -8491,7 +8491,7 @@
     <row r="34" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>4</v>
@@ -8508,7 +8508,7 @@
     <row r="35" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>5</v>
@@ -8525,7 +8525,7 @@
     <row r="36" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>6</v>
@@ -8542,7 +8542,7 @@
     <row r="37" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>7</v>
@@ -8576,7 +8576,7 @@
     <row r="39" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>8</v>
@@ -8610,7 +8610,7 @@
     <row r="41" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C41" s="10" t="s">
         <v>18</v>
@@ -8627,7 +8627,7 @@
     <row r="42" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C42" s="10" t="s">
         <v>19</v>
@@ -8778,7 +8778,7 @@
     <row r="54" spans="2:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B54" s="2">
         <f t="shared" ref="B54:B67" ca="1" si="2">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>1</v>
@@ -8795,7 +8795,7 @@
     <row r="55" spans="2:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B55" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>2</v>
@@ -8812,7 +8812,7 @@
     <row r="56" spans="2:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B56" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>3</v>
@@ -8829,7 +8829,7 @@
     <row r="57" spans="2:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B57" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>4</v>
@@ -8846,7 +8846,7 @@
     <row r="58" spans="2:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B58" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>5</v>
@@ -8863,7 +8863,7 @@
     <row r="59" spans="2:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B59" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>6</v>
@@ -8880,7 +8880,7 @@
     <row r="60" spans="2:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B60" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>7</v>
@@ -8897,7 +8897,7 @@
     <row r="61" spans="2:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B61" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
@@ -8914,7 +8914,7 @@
     <row r="62" spans="2:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B62" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>8</v>
@@ -8931,7 +8931,7 @@
     <row r="63" spans="2:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B63" s="16">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>17</v>
@@ -8948,7 +8948,7 @@
     <row r="64" spans="2:9" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B64" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>18</v>
@@ -8965,7 +8965,7 @@
     <row r="65" spans="2:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="B65" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C65" s="10" t="s">
         <v>19</v>
@@ -8999,7 +8999,7 @@
     <row r="67" spans="2:11" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B67" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C67" s="11" t="s">
         <v>21</v>
@@ -9095,7 +9095,7 @@
     <row r="74" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B74" s="2">
         <f t="shared" ref="B74:B88" ca="1" si="3">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>0</v>
@@ -9112,7 +9112,7 @@
     <row r="75" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B75" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>1</v>
@@ -9146,7 +9146,7 @@
     <row r="77" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B77" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>3</v>
@@ -9163,7 +9163,7 @@
     <row r="78" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B78" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>4</v>
@@ -9180,7 +9180,7 @@
     <row r="79" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B79" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>5</v>
@@ -9197,7 +9197,7 @@
     <row r="80" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B80" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>6</v>
@@ -9214,7 +9214,7 @@
     <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>7</v>
@@ -9231,7 +9231,7 @@
     <row r="82" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B82" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
@@ -9265,7 +9265,7 @@
     <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C84" s="12" t="s">
         <v>17</v>
@@ -9282,7 +9282,7 @@
     <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C85" s="10" t="s">
         <v>18</v>
@@ -9316,7 +9316,7 @@
     <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C87" s="10" t="s">
         <v>20</v>
@@ -9333,7 +9333,7 @@
     <row r="88" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B88" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C88" s="11" t="s">
         <v>21</v>
@@ -9437,7 +9437,7 @@
     <row r="7" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C7" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>0</v>
@@ -9461,7 +9461,7 @@
     <row r="8" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C8" s="2">
         <f t="shared" ref="C8:C21" ca="1" si="0">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>1</v>
@@ -9487,7 +9487,7 @@
     <row r="9" spans="3:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>2</v>
@@ -9513,7 +9513,7 @@
     <row r="10" spans="3:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>3</v>
@@ -9535,7 +9535,7 @@
     <row r="11" spans="3:20" x14ac:dyDescent="0.25">
       <c r="C11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>4</v>
@@ -9588,7 +9588,7 @@
     <row r="13" spans="3:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="C13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
@@ -9656,7 +9656,7 @@
     <row r="15" spans="3:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>9</v>
@@ -9705,7 +9705,7 @@
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" s="12" t="s">
         <v>17</v>
@@ -9756,7 +9756,7 @@
     <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>20</v>
@@ -9773,7 +9773,7 @@
     <row r="21" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>21</v>
@@ -9869,7 +9869,7 @@
     <row r="28" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C28" s="2">
         <f t="shared" ref="C28:C42" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>0</v>
@@ -9886,7 +9886,7 @@
     <row r="29" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>1</v>
@@ -9903,7 +9903,7 @@
     <row r="30" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>2</v>
@@ -9920,7 +9920,7 @@
     <row r="31" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>3</v>
@@ -9954,7 +9954,7 @@
     <row r="33" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>5</v>
@@ -9971,7 +9971,7 @@
     <row r="34" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>6</v>
@@ -9988,7 +9988,7 @@
     <row r="35" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>7</v>
@@ -10005,7 +10005,7 @@
     <row r="36" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>9</v>
@@ -10022,7 +10022,7 @@
     <row r="37" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>8</v>
@@ -10056,7 +10056,7 @@
     <row r="39" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D39" s="10" t="s">
         <v>18</v>
@@ -10073,7 +10073,7 @@
     <row r="40" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40" s="10" t="s">
         <v>19</v>
@@ -10090,7 +10090,7 @@
     <row r="41" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D41" s="10" t="s">
         <v>20</v>
@@ -10107,7 +10107,7 @@
     <row r="42" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>21</v>
@@ -10224,7 +10224,7 @@
     <row r="52" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C52" s="2">
         <f t="shared" ref="C52:C65" ca="1" si="2">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D52" s="2" t="s">
         <v>1</v>
@@ -10241,7 +10241,7 @@
     <row r="53" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C53" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>2</v>
@@ -10258,7 +10258,7 @@
     <row r="54" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C54" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>3</v>
@@ -10275,7 +10275,7 @@
     <row r="55" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C55" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>4</v>
@@ -10343,7 +10343,7 @@
     <row r="59" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C59" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>9</v>
@@ -10377,7 +10377,7 @@
     <row r="61" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C61" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D61" s="12" t="s">
         <v>17</v>
@@ -10394,7 +10394,7 @@
     <row r="62" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C62" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>18</v>
@@ -10428,7 +10428,7 @@
     <row r="64" spans="3:10" x14ac:dyDescent="0.25">
       <c r="C64" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" s="10" t="s">
         <v>20</v>
@@ -10575,7 +10575,7 @@
     <row r="74" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C74" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>2</v>
@@ -10592,7 +10592,7 @@
     <row r="75" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C75" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>3</v>
@@ -10609,7 +10609,7 @@
     <row r="76" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C76" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>4</v>
@@ -10643,7 +10643,7 @@
     <row r="78" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C78" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>6</v>
@@ -10677,7 +10677,7 @@
     <row r="80" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C80" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>9</v>
@@ -10694,7 +10694,7 @@
     <row r="81" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C81" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>8</v>
@@ -10745,7 +10745,7 @@
     <row r="84" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C84" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D84" s="10" t="s">
         <v>19</v>
@@ -10762,7 +10762,7 @@
     <row r="85" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C85" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D85" s="10" t="s">
         <v>20</v>
@@ -10779,7 +10779,7 @@
     <row r="86" spans="3:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C86" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>21</v>
@@ -10895,7 +10895,7 @@
     <row r="8" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E8" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>0</v>
@@ -10921,7 +10921,7 @@
     <row r="9" spans="5:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E9" s="2">
         <f t="shared" ref="E9:E22" ca="1" si="0">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>1</v>
@@ -10947,7 +10947,7 @@
     <row r="10" spans="5:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>2</v>
@@ -10969,7 +10969,7 @@
     <row r="11" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>3</v>
@@ -10993,7 +10993,7 @@
     <row r="12" spans="5:21" x14ac:dyDescent="0.25">
       <c r="E12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>4</v>
@@ -11022,7 +11022,7 @@
     <row r="13" spans="5:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>5</v>
@@ -11046,7 +11046,7 @@
     <row r="14" spans="5:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E14" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>6</v>
@@ -11084,7 +11084,7 @@
     <row r="15" spans="5:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>7</v>
@@ -11122,7 +11122,7 @@
     <row r="16" spans="5:21" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>9</v>
@@ -11139,7 +11139,7 @@
     <row r="17" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>8</v>
@@ -11156,7 +11156,7 @@
     <row r="18" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F18" s="12" t="s">
         <v>17</v>
@@ -11173,7 +11173,7 @@
     <row r="19" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E19" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>18</v>
@@ -11190,7 +11190,7 @@
     <row r="20" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>19</v>
@@ -11207,7 +11207,7 @@
     <row r="21" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>20</v>
@@ -11224,7 +11224,7 @@
     <row r="22" spans="5:14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E22" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" s="11" t="s">
         <v>21</v>
@@ -11337,7 +11337,7 @@
     <row r="30" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>1</v>
@@ -11354,7 +11354,7 @@
     <row r="31" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E31" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>2</v>
@@ -11371,7 +11371,7 @@
     <row r="32" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>3</v>
@@ -11388,7 +11388,7 @@
     <row r="33" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>4</v>
@@ -11405,7 +11405,7 @@
     <row r="34" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>5</v>
@@ -11422,7 +11422,7 @@
     <row r="35" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>6</v>
@@ -11439,7 +11439,7 @@
     <row r="36" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E36" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>7</v>
@@ -11456,7 +11456,7 @@
     <row r="37" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E37" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>9</v>
@@ -11473,7 +11473,7 @@
     <row r="38" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>8</v>
@@ -11490,7 +11490,7 @@
     <row r="39" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E39" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F39" s="12" t="s">
         <v>17</v>
@@ -11507,7 +11507,7 @@
     <row r="40" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F40" s="10" t="s">
         <v>18</v>
@@ -11524,7 +11524,7 @@
     <row r="41" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F41" s="10" t="s">
         <v>19</v>
@@ -11541,7 +11541,7 @@
     <row r="42" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F42" s="10" t="s">
         <v>20</v>
@@ -11659,7 +11659,7 @@
     <row r="52" spans="5:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E52" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>0</v>
@@ -11676,7 +11676,7 @@
     <row r="53" spans="5:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E53" s="2">
         <f t="shared" ref="E53:E66" ca="1" si="2">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>1</v>
@@ -11693,7 +11693,7 @@
     <row r="54" spans="5:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E54" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>2</v>
@@ -11710,7 +11710,7 @@
     <row r="55" spans="5:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E55" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>3</v>
@@ -11727,7 +11727,7 @@
     <row r="56" spans="5:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E56" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>4</v>
@@ -11744,7 +11744,7 @@
     <row r="57" spans="5:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E57" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>5</v>
@@ -11761,7 +11761,7 @@
     <row r="58" spans="5:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E58" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>6</v>
@@ -11778,7 +11778,7 @@
     <row r="59" spans="5:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E59" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>7</v>
@@ -11795,7 +11795,7 @@
     <row r="60" spans="5:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E60" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>9</v>
@@ -11812,7 +11812,7 @@
     <row r="61" spans="5:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E61" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>8</v>
@@ -11846,7 +11846,7 @@
     <row r="63" spans="5:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E63" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>18</v>
@@ -11863,7 +11863,7 @@
     <row r="64" spans="5:12" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E64" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F64" s="10" t="s">
         <v>19</v>
@@ -11880,7 +11880,7 @@
     <row r="65" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E65" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F65" s="10" t="s">
         <v>20</v>
@@ -11897,7 +11897,7 @@
     <row r="66" spans="5:14" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E66" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F66" s="11" t="s">
         <v>21</v>
@@ -11993,7 +11993,7 @@
     <row r="73" spans="5:14" ht="14.45" x14ac:dyDescent="0.3">
       <c r="E73" s="2">
         <f t="shared" ref="E73:E87" ca="1" si="3">RANDBETWEEN(1,5)</f>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>0</v>
@@ -12010,7 +12010,7 @@
     <row r="74" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E74" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>1</v>
@@ -12044,7 +12044,7 @@
     <row r="76" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E76" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>3</v>
@@ -12078,7 +12078,7 @@
     <row r="78" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E78" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>5</v>
@@ -12095,7 +12095,7 @@
     <row r="79" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E79" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>6</v>
@@ -12112,7 +12112,7 @@
     <row r="80" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E80" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>7</v>
@@ -12129,7 +12129,7 @@
     <row r="81" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E81" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -12146,7 +12146,7 @@
     <row r="82" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E82" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F82" s="2" t="s">
         <v>8</v>
@@ -12163,7 +12163,7 @@
     <row r="83" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E83" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F83" s="12" t="s">
         <v>17</v>
@@ -12180,7 +12180,7 @@
     <row r="84" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E84" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F84" s="10" t="s">
         <v>18</v>
@@ -12197,7 +12197,7 @@
     <row r="85" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E85" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F85" s="10" t="s">
         <v>19</v>
@@ -12214,7 +12214,7 @@
     <row r="86" spans="5:14" x14ac:dyDescent="0.25">
       <c r="E86" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F86" s="10" t="s">
         <v>20</v>
@@ -12231,7 +12231,7 @@
     <row r="87" spans="5:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E87" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" s="11" t="s">
         <v>21</v>
@@ -12277,6 +12277,7 @@
   <cols>
     <col min="13" max="13" width="26.85546875" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="30.140625" customWidth="1"/>
     <col min="18" max="18" width="26.28515625" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="18" bestFit="1" customWidth="1"/>
@@ -12345,7 +12346,7 @@
     <row r="7" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D7" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>0</v>
@@ -12397,7 +12398,7 @@
     <row r="9" spans="4:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>2</v>
@@ -12419,7 +12420,7 @@
     <row r="10" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>3</v>
@@ -12496,7 +12497,7 @@
     <row r="13" spans="4:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>6</v>
@@ -12572,7 +12573,7 @@
     <row r="15" spans="4:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>9</v>
@@ -12589,7 +12590,7 @@
     <row r="16" spans="4:20" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D16" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>8</v>
@@ -12606,7 +12607,7 @@
     <row r="17" spans="4:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E17" s="12" t="s">
         <v>17</v>
@@ -12623,7 +12624,7 @@
     <row r="18" spans="4:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D18" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>18</v>
@@ -12657,7 +12658,7 @@
     <row r="20" spans="4:13" ht="14.45" x14ac:dyDescent="0.3">
       <c r="D20" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>20</v>
@@ -12674,7 +12675,7 @@
     <row r="21" spans="4:13" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D21" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E21" s="11" t="s">
         <v>21</v>
@@ -12770,7 +12771,7 @@
     <row r="28" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D28" s="2">
         <f t="shared" ref="D28:D42" ca="1" si="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>0</v>
@@ -12787,7 +12788,7 @@
     <row r="29" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D29" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>1</v>
@@ -12804,7 +12805,7 @@
     <row r="30" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D30" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>2</v>
@@ -12838,7 +12839,7 @@
     <row r="32" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D32" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>4</v>
@@ -12855,7 +12856,7 @@
     <row r="33" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D33" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>5</v>
@@ -12872,7 +12873,7 @@
     <row r="34" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D34" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>6</v>
@@ -12889,7 +12890,7 @@
     <row r="35" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D35" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>7</v>
@@ -12940,7 +12941,7 @@
     <row r="38" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D38" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>17</v>
@@ -12974,7 +12975,7 @@
     <row r="40" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D40" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>19</v>
@@ -12991,7 +12992,7 @@
     <row r="41" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D41" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>20</v>
@@ -13008,7 +13009,7 @@
     <row r="42" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D42" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>21</v>
@@ -13108,7 +13109,7 @@
     <row r="51" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D51" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>0</v>
@@ -13125,7 +13126,7 @@
     <row r="52" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D52" s="2">
         <f t="shared" ref="D52:D65" ca="1" si="2">RANDBETWEEN(1,5)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>1</v>
@@ -13142,7 +13143,7 @@
     <row r="53" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D53" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>2</v>
@@ -13176,7 +13177,7 @@
     <row r="55" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D55" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>4</v>
@@ -13244,7 +13245,7 @@
     <row r="59" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D59" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>9</v>
@@ -13261,7 +13262,7 @@
     <row r="60" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D60" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>8</v>
@@ -13278,7 +13279,7 @@
     <row r="61" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D61" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>17</v>
@@ -13295,7 +13296,7 @@
     <row r="62" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D62" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>18</v>
@@ -13312,7 +13313,7 @@
     <row r="63" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D63" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>19</v>
@@ -13329,7 +13330,7 @@
     <row r="64" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D64" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>20</v>
@@ -13346,7 +13347,7 @@
     <row r="65" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D65" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>21</v>
@@ -13442,7 +13443,7 @@
     <row r="72" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D72" s="2">
         <f t="shared" ref="D72:D86" ca="1" si="3">RANDBETWEEN(1,5)</f>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>0</v>
@@ -13459,7 +13460,7 @@
     <row r="73" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D73" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>1</v>
@@ -13476,7 +13477,7 @@
     <row r="74" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D74" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>2</v>
@@ -13493,7 +13494,7 @@
     <row r="75" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D75" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>3</v>
@@ -13510,7 +13511,7 @@
     <row r="76" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D76" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>4</v>
@@ -13544,7 +13545,7 @@
     <row r="78" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D78" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>6</v>
@@ -13578,7 +13579,7 @@
     <row r="80" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D80" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>9</v>
@@ -13595,7 +13596,7 @@
     <row r="81" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D81" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>8</v>
@@ -13612,7 +13613,7 @@
     <row r="82" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D82" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E82" s="12" t="s">
         <v>17</v>
@@ -13629,7 +13630,7 @@
     <row r="83" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D83" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E83" s="10" t="s">
         <v>18</v>
@@ -13646,7 +13647,7 @@
     <row r="84" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D84" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E84" s="10" t="s">
         <v>19</v>
@@ -13663,7 +13664,7 @@
     <row r="85" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D85" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E85" s="10" t="s">
         <v>20</v>
